--- a/output/selected_external_variables.xlsx
+++ b/output/selected_external_variables.xlsx
@@ -14,111 +14,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+  <si>
+    <t>C59</t>
+  </si>
+  <si>
+    <t>C67</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C49</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C51</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>C52</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C58</t>
+  </si>
+  <si>
+    <t>C46</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C44</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C50</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
   <si>
     <t>C37</t>
   </si>
   <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>C44</t>
-  </si>
-  <si>
-    <t>C57</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>C5</t>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C28</t>
   </si>
   <si>
     <t>C60</t>
   </si>
   <si>
-    <t>C42</t>
-  </si>
-  <si>
     <t>C48</t>
   </si>
   <si>
-    <t>C59</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C58</t>
-  </si>
-  <si>
-    <t>C29</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>C56</t>
-  </si>
-  <si>
-    <t>C7</t>
+    <t>C62</t>
   </si>
   <si>
     <t>C45</t>
   </si>
   <si>
-    <t>C46</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C51</t>
-  </si>
-  <si>
-    <t>C39</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>C55</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>C66</t>
-  </si>
-  <si>
-    <t>C64</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>C11</t>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C53</t>
   </si>
   <si>
     <t>class</t>
@@ -127,157 +127,139 @@
     <t>Sample name</t>
   </si>
   <si>
-    <t>variable5</t>
-  </si>
-  <si>
-    <t>variable46</t>
-  </si>
-  <si>
-    <t>variable63</t>
-  </si>
-  <si>
-    <t>variable84</t>
+    <t>variable43</t>
+  </si>
+  <si>
+    <t>variable69</t>
+  </si>
+  <si>
+    <t>variable82</t>
   </si>
   <si>
     <t>variable89</t>
   </si>
   <si>
-    <t>variable103</t>
-  </si>
-  <si>
     <t>variable117</t>
   </si>
   <si>
-    <t>variable120</t>
-  </si>
-  <si>
     <t>variable131</t>
   </si>
   <si>
-    <t>variable153</t>
+    <t>variable132</t>
+  </si>
+  <si>
+    <t>variable133</t>
   </si>
   <si>
     <t>variable166</t>
   </si>
   <si>
-    <t>variable167</t>
-  </si>
-  <si>
-    <t>variable171</t>
-  </si>
-  <si>
-    <t>variable172</t>
-  </si>
-  <si>
-    <t>variable177</t>
-  </si>
-  <si>
     <t>variable185</t>
   </si>
   <si>
-    <t>variable186</t>
-  </si>
-  <si>
-    <t>variable202</t>
-  </si>
-  <si>
-    <t>variable207</t>
-  </si>
-  <si>
-    <t>variable213</t>
-  </si>
-  <si>
-    <t>variable250</t>
-  </si>
-  <si>
-    <t>variable255</t>
+    <t>variable237</t>
+  </si>
+  <si>
+    <t>variable253</t>
   </si>
   <si>
     <t>variable259</t>
   </si>
   <si>
-    <t>variable280</t>
-  </si>
-  <si>
-    <t>variable292</t>
-  </si>
-  <si>
-    <t>variable306</t>
+    <t>variable261</t>
+  </si>
+  <si>
+    <t>variable290</t>
+  </si>
+  <si>
+    <t>variable317</t>
+  </si>
+  <si>
+    <t>variable332</t>
   </si>
   <si>
     <t>variable340</t>
   </si>
   <si>
-    <t>variable341</t>
-  </si>
-  <si>
-    <t>variable356</t>
-  </si>
-  <si>
-    <t>variable447</t>
-  </si>
-  <si>
-    <t>variable471</t>
-  </si>
-  <si>
-    <t>variable520</t>
-  </si>
-  <si>
-    <t>variable527</t>
-  </si>
-  <si>
-    <t>variable539</t>
-  </si>
-  <si>
-    <t>variable589</t>
-  </si>
-  <si>
-    <t>variable600</t>
-  </si>
-  <si>
-    <t>variable605</t>
-  </si>
-  <si>
-    <t>variable635</t>
+    <t>variable343</t>
+  </si>
+  <si>
+    <t>variable404</t>
+  </si>
+  <si>
+    <t>variable441</t>
+  </si>
+  <si>
+    <t>variable443</t>
+  </si>
+  <si>
+    <t>variable463</t>
+  </si>
+  <si>
+    <t>variable498</t>
+  </si>
+  <si>
+    <t>variable526</t>
+  </si>
+  <si>
+    <t>variable566</t>
+  </si>
+  <si>
+    <t>variable574</t>
+  </si>
+  <si>
+    <t>variable595</t>
+  </si>
+  <si>
+    <t>variable599</t>
   </si>
   <si>
     <t>variable640</t>
   </si>
   <si>
-    <t>variable650</t>
-  </si>
-  <si>
-    <t>variable659</t>
-  </si>
-  <si>
-    <t>variable676</t>
-  </si>
-  <si>
-    <t>variable686</t>
-  </si>
-  <si>
-    <t>variable696</t>
-  </si>
-  <si>
-    <t>variable712</t>
-  </si>
-  <si>
-    <t>variable734</t>
+    <t>variable643</t>
+  </si>
+  <si>
+    <t>variable646</t>
+  </si>
+  <si>
+    <t>variable661</t>
+  </si>
+  <si>
+    <t>variable731</t>
+  </si>
+  <si>
+    <t>variable732</t>
+  </si>
+  <si>
+    <t>variable733</t>
   </si>
   <si>
     <t>variable737</t>
   </si>
   <si>
-    <t>variable844</t>
+    <t>variable742</t>
+  </si>
+  <si>
+    <t>variable775</t>
+  </si>
+  <si>
+    <t>variable800</t>
+  </si>
+  <si>
+    <t>variable811</t>
+  </si>
+  <si>
+    <t>variable859</t>
+  </si>
+  <si>
+    <t>variable885</t>
   </si>
   <si>
     <t>variable893</t>
   </si>
   <si>
-    <t>variable935</t>
-  </si>
-  <si>
-    <t>variable941</t>
+    <t>variable965</t>
   </si>
   <si>
     <t>variable978</t>
@@ -615,13 +597,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC36"/>
+  <dimension ref="A1:AW36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:49">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -769,527 +751,455 @@
       <c r="AW1" t="s">
         <v>83</v>
       </c>
-      <c r="AX1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.001301266929470507</v>
+        <v>159384.813</v>
       </c>
       <c r="D2">
-        <v>0.009143435829848849</v>
+        <v>94746.49800000001</v>
       </c>
       <c r="E2">
-        <v>0.01126759102468959</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1384425224863035</v>
+        <v>8071.867</v>
       </c>
       <c r="G2">
-        <v>0.001574088343026425</v>
+        <v>16443.418</v>
       </c>
       <c r="H2">
-        <v>0.002134686090991486</v>
+        <v>47573.689</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>137214.181</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>32757.466</v>
       </c>
       <c r="K2">
-        <v>0.1608466509754606</v>
+        <v>10927.82</v>
       </c>
       <c r="L2">
-        <v>0.003570477341670307</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>69585.43700000001</v>
       </c>
       <c r="N2">
-        <v>0.03467127959612851</v>
+        <v>72263.63099999999</v>
       </c>
       <c r="O2">
-        <v>0.003865249734206772</v>
+        <v>82538.045</v>
       </c>
       <c r="P2">
-        <v>0.003808784907727662</v>
+        <v>19411.392</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01129515616510667</v>
+        <v>10005.34</v>
       </c>
       <c r="S2">
-        <v>0.005315657027731707</v>
+        <v>86361.174</v>
       </c>
       <c r="T2">
-        <v>0.4073521636699076</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.01435072351081743</v>
+        <v>76397.22</v>
       </c>
       <c r="V2">
-        <v>0.0007559210475988256</v>
+        <v>77141.87300000001</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>51498.287</v>
       </c>
       <c r="X2">
-        <v>0.003024476790363965</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.01418764309310104</v>
+        <v>133688.663</v>
       </c>
       <c r="Z2">
-        <v>0.0007892617199320024</v>
+        <v>12657.016</v>
       </c>
       <c r="AA2">
-        <v>0.2075152645828528</v>
+        <v>1375912.87</v>
       </c>
       <c r="AB2">
-        <v>0.08969749001664597</v>
+        <v>28953</v>
       </c>
       <c r="AC2">
-        <v>0.1823551320769347</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.002594894203514127</v>
+        <v>19005.815</v>
       </c>
       <c r="AE2">
-        <v>0.05484808827169714</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.000820551809287849</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.001646180663671446</v>
+        <v>2707.655</v>
       </c>
       <c r="AH2">
-        <v>0.001265143499779674</v>
+        <v>1532.454</v>
       </c>
       <c r="AI2">
-        <v>0.04608920924902489</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.004634501279093978</v>
+        <v>89664.917</v>
       </c>
       <c r="AK2">
-        <v>0.001267453924565724</v>
+        <v>217034.823</v>
       </c>
       <c r="AL2">
-        <v>0.01375106656831996</v>
+        <v>69255.15300000001</v>
       </c>
       <c r="AM2">
-        <v>0.00153550112769961</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>109513.03</v>
       </c>
       <c r="AO2">
-        <v>0.0495056047563056</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.000931271982351257</v>
+        <v>51091.585</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>76940.747</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>227941.909</v>
       </c>
       <c r="AS2">
-        <v>0.1255949045671504</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0007512924239744256</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>42364.24</v>
       </c>
       <c r="AV2">
-        <v>0.001551471622476124</v>
+        <v>50861.231</v>
       </c>
       <c r="AW2">
-        <v>0.00546732478330458</v>
-      </c>
-      <c r="AX2">
-        <v>0.001740159415105182</v>
-      </c>
-      <c r="AY2">
-        <v>0.005223595640288148</v>
-      </c>
-      <c r="AZ2">
-        <v>0.02401436134604655</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0.007097798916611723</v>
-      </c>
-      <c r="BC2">
-        <v>0.01928472463076742</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0.0004184004502956173</v>
+        <v>372755.879</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>315150.465</v>
       </c>
       <c r="E3">
-        <v>0.01282116625018315</v>
+        <v>15973.322</v>
       </c>
       <c r="F3">
-        <v>0.06227706795860657</v>
+        <v>12956.085</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>23881.638</v>
       </c>
       <c r="H3">
-        <v>0.002577971571481382</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>82405.728</v>
       </c>
       <c r="K3">
-        <v>0.001484282162476967</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001221141102374892</v>
+        <v>33004.954</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>56441.374</v>
       </c>
       <c r="N3">
-        <v>0.006099145498957816</v>
+        <v>95419.632</v>
       </c>
       <c r="O3">
-        <v>0.001633095141443311</v>
+        <v>119440.918</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>56974.483</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>16040.566</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>31989.479</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>83727.227</v>
       </c>
       <c r="T3">
-        <v>0.2740548897535495</v>
+        <v>1555710.96</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>119741.035</v>
       </c>
       <c r="V3">
-        <v>0.0003178566547011703</v>
+        <v>72765.716</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>70580.16</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>43368.158</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>138698.839</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>28247.034</v>
       </c>
       <c r="AA3">
-        <v>0.08868513128966489</v>
+        <v>1207560.9</v>
       </c>
       <c r="AB3">
-        <v>0.03785559420419763</v>
+        <v>64463.096</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>5933.612</v>
       </c>
       <c r="AD3">
-        <v>0.0002726478349306976</v>
+        <v>17664.334</v>
       </c>
       <c r="AE3">
-        <v>0.03620698041285361</v>
+        <v>27886.781</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>330599.261</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>6167.483</v>
       </c>
       <c r="AI3">
-        <v>0.02669044931217661</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>84598.496</v>
       </c>
       <c r="AK3">
-        <v>0.0003783452894211675</v>
+        <v>370089.34</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>98951.95600000001</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0103289726779125</v>
+        <v>34440.103</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.003334690841535386</v>
+        <v>62502.562</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>61442.162</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>386233.25</v>
       </c>
       <c r="AS3">
-        <v>0.04370991410451319</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0002125914100513475</v>
+        <v>15411.591</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>9056.960999999999</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>53715.234</v>
       </c>
       <c r="AW3">
-        <v>0.02802699771173697</v>
-      </c>
-      <c r="AX3">
-        <v>0.0006868930998823228</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0.004423649496226586</v>
-      </c>
-      <c r="BA3">
-        <v>1.170485120367405E-05</v>
-      </c>
-      <c r="BB3">
-        <v>0.008202186694125506</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
+        <v>159358.678</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.0003762521920610018</v>
+        <v>292591.471</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>165275.101</v>
       </c>
       <c r="E4">
-        <v>0.01890706999163499</v>
+        <v>16228.845</v>
       </c>
       <c r="F4">
-        <v>0.05398036488587733</v>
+        <v>18912.53</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>26750.146</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>932219.548</v>
       </c>
       <c r="I4">
-        <v>0.005684929681388282</v>
+        <v>145889.496</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>80425.428</v>
       </c>
       <c r="K4">
-        <v>0.002022990497127164</v>
+        <v>65590.649</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>59369.188</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0072033254497876</v>
+        <v>27783.646</v>
       </c>
       <c r="O4">
-        <v>0.001395286837151816</v>
+        <v>143271.849</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>50072.946</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>17498.12</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>22853.924</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>98917.69100000001</v>
       </c>
       <c r="T4">
-        <v>0.2218529146547906</v>
+        <v>1283730.18</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>47732.015</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>101179.864</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>71336.024</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>52444.637</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>217624.661</v>
       </c>
       <c r="Z4">
-        <v>6.940208394769647E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.3649268516497403</v>
+        <v>1191382.06</v>
       </c>
       <c r="AB4">
-        <v>0.05722825477243725</v>
+        <v>133996.877</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>31895.396</v>
       </c>
       <c r="AD4">
-        <v>0.0006916794697439746</v>
+        <v>23944.551</v>
       </c>
       <c r="AE4">
-        <v>0.03021627196610562</v>
+        <v>56740.231</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>263640.309</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>4334.494</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>160033.372</v>
       </c>
       <c r="AI4">
-        <v>0.02280445136466145</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>30807.015</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>37204.383</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>91110.77</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>185861.808</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>234.097</v>
       </c>
       <c r="AP4">
-        <v>0.001863074806595787</v>
+        <v>29153.049</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>94668.663</v>
       </c>
       <c r="AR4">
-        <v>0.004989614785665245</v>
+        <v>238040.979</v>
       </c>
       <c r="AS4">
-        <v>0.04165597716404553</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>15720.316</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>45745.163</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>48373.29</v>
       </c>
       <c r="AW4">
-        <v>0.0214448978662419</v>
-      </c>
-      <c r="AX4">
-        <v>0.0007230737316639191</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0.001368599424124346</v>
-      </c>
-      <c r="BA4">
-        <v>6.209899424214743E-07</v>
-      </c>
-      <c r="BB4">
-        <v>0.008203619906548351</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
+        <v>45050.155</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1297,192 +1207,174 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.0004280903246505312</v>
+        <v>375572.191</v>
       </c>
       <c r="D5">
-        <v>0.01015765640817398</v>
+        <v>459271.571</v>
       </c>
       <c r="E5">
-        <v>0.02174524050723315</v>
+        <v>25372.224</v>
       </c>
       <c r="F5">
-        <v>0.1367452115458776</v>
+        <v>31257.173</v>
       </c>
       <c r="G5">
-        <v>0.0009295737639325217</v>
+        <v>37404.857</v>
       </c>
       <c r="H5">
-        <v>0.001509219090050035</v>
+        <v>1737275.16</v>
       </c>
       <c r="I5">
-        <v>0.001591466157145739</v>
+        <v>214398.398</v>
       </c>
       <c r="J5">
-        <v>0.003917189171388242</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1938145730083259</v>
+        <v>54914.528</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>102919.913</v>
       </c>
       <c r="M5">
-        <v>0.003917316479082363</v>
+        <v>59350.358</v>
       </c>
       <c r="N5">
-        <v>0.01238276661764911</v>
+        <v>115137.823</v>
       </c>
       <c r="O5">
-        <v>0.003205065764385383</v>
+        <v>94434.35400000001</v>
       </c>
       <c r="P5">
-        <v>0.00530985657916108</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0009666967791264896</v>
+        <v>11186.86</v>
       </c>
       <c r="R5">
-        <v>0.00694611764286629</v>
+        <v>18877.071</v>
       </c>
       <c r="S5">
-        <v>0.003760103039861844</v>
+        <v>71568.353</v>
       </c>
       <c r="T5">
-        <v>0.3459703797827035</v>
+        <v>2775699.53</v>
       </c>
       <c r="U5">
-        <v>0.02963731568155919</v>
+        <v>215638.884</v>
       </c>
       <c r="V5">
-        <v>0.0009649469852443438</v>
+        <v>80277.163</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>74879.46400000001</v>
       </c>
       <c r="X5">
-        <v>0.00171999678363064</v>
+        <v>132873.89</v>
       </c>
       <c r="Y5">
-        <v>0.01144468304417368</v>
+        <v>237445.383</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>2662422.76</v>
       </c>
       <c r="AB5">
-        <v>0.06435654660705981</v>
+        <v>235897.625</v>
       </c>
       <c r="AC5">
-        <v>0.637087915501022</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0003163851501208403</v>
+        <v>26766.018</v>
       </c>
       <c r="AE5">
-        <v>0.05010118970782623</v>
+        <v>94146.898</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>373500.471</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.002747685282289422</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.02707141170477825</v>
+        <v>7247.826</v>
       </c>
       <c r="AJ5">
-        <v>0.004119457055425941</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.001848848770454929</v>
+        <v>950500.819</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>66401.966</v>
       </c>
       <c r="AM5">
-        <v>0.0008174441922606484</v>
+        <v>56427.431</v>
       </c>
       <c r="AN5">
-        <v>0.0203188841864182</v>
+        <v>61208.165</v>
       </c>
       <c r="AO5">
-        <v>0.03401205053738388</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.001814333158798377</v>
+        <v>58969.86</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>72455.02499999999</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>614596.689</v>
       </c>
       <c r="AS5">
-        <v>0.0380759287399844</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0005273731532644858</v>
+        <v>38035.577</v>
       </c>
       <c r="AU5">
-        <v>0.0008827717004545877</v>
+        <v>9894.239</v>
       </c>
       <c r="AV5">
-        <v>0.001893391351332887</v>
+        <v>108327.575</v>
       </c>
       <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0.001647528252576269</v>
-      </c>
-      <c r="AY5">
-        <v>0.003901653053292015</v>
-      </c>
-      <c r="AZ5">
-        <v>0.02527686458873542</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0.004803228512315494</v>
-      </c>
-      <c r="BC5">
-        <v>0.04141338878198885</v>
+        <v>217024.228</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0.0003822921289827072</v>
+        <v>448228.731</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>93094.55899999999</v>
       </c>
       <c r="E6">
-        <v>0.002649777583821969</v>
+        <v>4815.039</v>
       </c>
       <c r="F6">
-        <v>0.01977695319527345</v>
+        <v>9089.155000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001223481464139847</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.005108558629435486</v>
+        <v>61038.636</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1491,139 +1383,121 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0008343821149912501</v>
+        <v>30896.231</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12415.312</v>
       </c>
       <c r="N6">
-        <v>0.006154191348421573</v>
+        <v>24390.863</v>
       </c>
       <c r="O6">
-        <v>0.0009517465150623548</v>
+        <v>86468.069</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>15043.023</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>20531.371</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>27615.393</v>
       </c>
       <c r="T6">
-        <v>0.1878518093552413</v>
+        <v>959319.032</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>28808.752</v>
       </c>
       <c r="V6">
-        <v>0.0003663648495135439</v>
+        <v>45139.925</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>48152.234</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>36423.67</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>113344.992</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.06201045192347217</v>
+        <v>783861.674</v>
       </c>
       <c r="AB6">
-        <v>0.03139629051345994</v>
+        <v>112176.454</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0008141348750555897</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.03066348091182733</v>
+        <v>60159.988</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>145631.703</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1941.315</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0215440870085429</v>
+        <v>6358.183</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>28670.19</v>
       </c>
       <c r="AK6">
-        <v>0.0002432327661896235</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>63497.742</v>
       </c>
       <c r="AN6">
-        <v>0.005567150037497521</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0009510419266594727</v>
+        <v>66626.414</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>81824.41800000001</v>
       </c>
       <c r="AR6">
-        <v>0.005709888614134512</v>
+        <v>250198.569</v>
       </c>
       <c r="AS6">
-        <v>0.03764500792908245</v>
+        <v>16538.074</v>
       </c>
       <c r="AT6">
-        <v>0.0003127278766598557</v>
+        <v>7871.727</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>5293.44</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>68465.762</v>
       </c>
       <c r="AW6">
-        <v>0.02449053694386609</v>
-      </c>
-      <c r="AX6">
-        <v>0.001902010053827009</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0.003229560525999394</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0.009313168482433085</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
+        <v>133613.887</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1631,46 +1505,46 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.00208164664610097</v>
+        <v>144448.985</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>90961.24099999999</v>
       </c>
       <c r="E7">
-        <v>0.01033426911905379</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04175773343867047</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>72574.439</v>
       </c>
       <c r="H7">
-        <v>0.002830032374459032</v>
+        <v>173576.241</v>
       </c>
       <c r="I7">
-        <v>0.003491368813523884</v>
+        <v>186.148</v>
       </c>
       <c r="J7">
-        <v>0.002228825218646443</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.01489091461500541</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.001107023097364015</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.0106492849461408</v>
+        <v>17928.057</v>
       </c>
       <c r="O7">
-        <v>0.002324486560645734</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.001280251644393638</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1682,40 +1556,40 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.3494053556217783</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>57221.573</v>
       </c>
       <c r="V7">
-        <v>0.0007968241867684938</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>112609.91</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>4676.062</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>230309.084</v>
       </c>
       <c r="AA7">
-        <v>0.298788120956357</v>
+        <v>247371.318</v>
       </c>
       <c r="AB7">
-        <v>0.07133368403722254</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>47031.752</v>
       </c>
       <c r="AD7">
-        <v>0.001224643371799899</v>
+        <v>132106.799</v>
       </c>
       <c r="AE7">
-        <v>0.03983256892147187</v>
+        <v>339854.018</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1724,117 +1598,99 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>82268.105</v>
       </c>
       <c r="AI7">
-        <v>0.02720817869573557</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>0.002365812183639114</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>274310.031</v>
       </c>
       <c r="AN7">
-        <v>0.0103517791193883</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>10975.517</v>
       </c>
       <c r="AP7">
-        <v>0.001617984063002371</v>
+        <v>99604.981</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>26137.254</v>
       </c>
       <c r="AR7">
-        <v>0.003468267552761731</v>
+        <v>58194.03</v>
       </c>
       <c r="AS7">
-        <v>0.07693950741996723</v>
+        <v>35663.578</v>
       </c>
       <c r="AT7">
-        <v>0.0003654363623751861</v>
+        <v>0</v>
       </c>
       <c r="AU7">
         <v>0</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>153814.347</v>
       </c>
       <c r="AW7">
-        <v>0.0139327585971108</v>
-      </c>
-      <c r="AX7">
-        <v>0.004727020933455631</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0.01207049630198088</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0.01192728588755515</v>
-      </c>
-      <c r="BC7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>150154.316</v>
       </c>
       <c r="D8">
-        <v>0.009949720593443862</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.005287709222727121</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1853513694765613</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0006704042494892867</v>
+        <v>87877.80899999999</v>
       </c>
       <c r="H8">
-        <v>0.001106421220342931</v>
+        <v>32789.459</v>
       </c>
       <c r="I8">
-        <v>0.001910206403034255</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4032.528</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.003730160614628253</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.003398512696011288</v>
+        <v>11438.348</v>
       </c>
       <c r="N8">
-        <v>0.0195509645850052</v>
+        <v>24108.245</v>
       </c>
       <c r="O8">
-        <v>0.00315732020349384</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1846,123 +1702,105 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.002489816288622205</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.345947934915051</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.02982572717050364</v>
+        <v>41399.601</v>
       </c>
       <c r="V8">
-        <v>0.001017747004674383</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0005939554787252917</v>
+        <v>100134.336</v>
       </c>
       <c r="X8">
-        <v>0.001117337215269663</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.01005146818528825</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>1.931102659976241E-06</v>
+        <v>163193.295</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>408429.079</v>
       </c>
       <c r="AB8">
-        <v>0.09628929203612384</v>
+        <v>17255.774</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>25185.843</v>
       </c>
       <c r="AD8">
-        <v>0.0007050393827669304</v>
+        <v>331603.999</v>
       </c>
       <c r="AE8">
-        <v>0.05236523618963135</v>
+        <v>142797.12</v>
       </c>
       <c r="AF8">
-        <v>0.000327421064443811</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2566.829</v>
       </c>
       <c r="AH8">
-        <v>0.000805854548930513</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.01432148374577124</v>
+        <v>5952.16</v>
       </c>
       <c r="AJ8">
-        <v>0.004604052259811492</v>
+        <v>38197.966</v>
       </c>
       <c r="AK8">
-        <v>0.00103701247683871</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>338209.233</v>
       </c>
       <c r="AN8">
-        <v>0.01765688498553925</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>11341.436</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>80683.762</v>
       </c>
       <c r="AQ8">
-        <v>0.001006978448224867</v>
+        <v>24253.699</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>77742.92600000001</v>
       </c>
       <c r="AS8">
-        <v>0.03953775709529123</v>
+        <v>46857.989</v>
       </c>
       <c r="AT8">
-        <v>0.000636527218830382</v>
+        <v>0</v>
       </c>
       <c r="AU8">
-        <v>0.0007957535196531686</v>
+        <v>7417.18</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>131755.912</v>
       </c>
       <c r="AW8">
-        <v>0.002844788291551637</v>
-      </c>
-      <c r="AX8">
-        <v>0.000857614629331339</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0.01234046750695977</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0.006515391122639992</v>
-      </c>
-      <c r="BC8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1971,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01044410264504094</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1482869214344156</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1482224.05</v>
       </c>
       <c r="I9">
-        <v>0.004000777274194247</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.00138717805489523</v>
+        <v>18802.683</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1998,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.009929442697096932</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.001291435312410777</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2016,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.4126111371389673</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2034,22 +1872,22 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>19441.567</v>
       </c>
       <c r="AA9">
-        <v>0.4454918783008512</v>
+        <v>2404591.53</v>
       </c>
       <c r="AB9">
-        <v>0.08178581757094605</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.0009145865237979158</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.04541772001508412</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2058,284 +1896,248 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>8519.678</v>
       </c>
       <c r="AI9">
-        <v>0.03721835335477509</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>296551.157</v>
       </c>
       <c r="AK9">
-        <v>0.0005055002573995666</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>132388.88</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>86712.948</v>
       </c>
       <c r="AN9">
-        <v>0.01413386382890392</v>
+        <v>143823.99</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.001261528558641829</v>
+        <v>99764.443</v>
       </c>
       <c r="AQ9">
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0.006932380039585548</v>
+        <v>882280.338</v>
       </c>
       <c r="AS9">
-        <v>0.05164555728243108</v>
+        <v>5201.227</v>
       </c>
       <c r="AT9">
-        <v>0.0002490585360604084</v>
+        <v>0</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>138844.966</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>198743.021</v>
       </c>
       <c r="AW9">
-        <v>0.01821357576078663</v>
-      </c>
-      <c r="AX9">
-        <v>0.000657660998993489</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0.005276304654844505</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0.002305728783781609</v>
-      </c>
-      <c r="BC9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>225856.024</v>
       </c>
       <c r="D10">
-        <v>0.008475306290317067</v>
+        <v>244977.38</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>12554.543</v>
       </c>
       <c r="G10">
-        <v>0.001013255304389209</v>
+        <v>20540.477</v>
       </c>
       <c r="H10">
-        <v>0.001225475489240166</v>
+        <v>78713.948</v>
       </c>
       <c r="I10">
-        <v>0.00237349851629651</v>
+        <v>90304.80899999999</v>
       </c>
       <c r="J10">
-        <v>0.003648420657378632</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.08656463016685904</v>
+        <v>41190.896</v>
       </c>
       <c r="L10">
-        <v>0.002391095878842344</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.001318571837812931</v>
+        <v>17420.589</v>
       </c>
       <c r="N10">
-        <v>0.0161301335248934</v>
+        <v>34247.603</v>
       </c>
       <c r="O10">
-        <v>0.003419970640728839</v>
+        <v>63583.417</v>
       </c>
       <c r="P10">
-        <v>0.001942430539569083</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>20330.935</v>
       </c>
       <c r="R10">
-        <v>0.004472467792859107</v>
+        <v>11634.159</v>
       </c>
       <c r="S10">
-        <v>0.002804909402280921</v>
+        <v>39780.859</v>
       </c>
       <c r="T10">
-        <v>0.192561485283773</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.01999258384505527</v>
+        <v>38004.966</v>
       </c>
       <c r="V10">
-        <v>0.000457091497347883</v>
+        <v>76885.81</v>
       </c>
       <c r="W10">
-        <v>0.001551674757946859</v>
+        <v>64748.527</v>
       </c>
       <c r="X10">
-        <v>0.001097885615243705</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.008247629020060675</v>
+        <v>110581.479</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>86252.444</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1203648.1</v>
       </c>
       <c r="AB10">
-        <v>0.09058604819358387</v>
+        <v>181718.402</v>
       </c>
       <c r="AC10">
-        <v>0.1459495620298591</v>
+        <v>7207.886</v>
       </c>
       <c r="AD10">
-        <v>0.001406886039449112</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.04208907090680831</v>
+        <v>95366.433</v>
       </c>
       <c r="AF10">
-        <v>0.0005403070900236314</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.0009118921771204482</v>
+        <v>3566.567</v>
       </c>
       <c r="AH10">
-        <v>0.001188104017665568</v>
+        <v>149523.066</v>
       </c>
       <c r="AI10">
-        <v>0.03237084891694845</v>
+        <v>15834.268</v>
       </c>
       <c r="AJ10">
-        <v>0.003471498481024531</v>
+        <v>24133.832</v>
       </c>
       <c r="AK10">
-        <v>0.001424089616613171</v>
+        <v>411709.754</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>28337.25</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>74045.822</v>
       </c>
       <c r="AN10">
-        <v>0.0162785700824182</v>
+        <v>45539.726</v>
       </c>
       <c r="AO10">
-        <v>0.03111529039599765</v>
+        <v>0</v>
       </c>
       <c r="AP10">
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0.0006817585852877008</v>
+        <v>58406.264</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>279812.942</v>
       </c>
       <c r="AS10">
-        <v>0.0698152828399257</v>
+        <v>2214.234</v>
       </c>
       <c r="AT10">
-        <v>0.0003922819957680276</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>22123.625</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>70798.708</v>
       </c>
       <c r="AW10">
-        <v>0.00458458506110016</v>
-      </c>
-      <c r="AX10">
-        <v>0.003182599345960954</v>
-      </c>
-      <c r="AY10">
-        <v>0.00306963186877261</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0.008003495794162145</v>
-      </c>
-      <c r="BC10">
-        <v>0.01472073722543194</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.006796366937557211</v>
+        <v>41148.316</v>
       </c>
       <c r="E11">
-        <v>0.02088825210338903</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1042586215824228</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007397187054930288</v>
+        <v>102250.151</v>
       </c>
       <c r="H11">
-        <v>0.001175740764228327</v>
+        <v>9192.998</v>
       </c>
       <c r="I11">
-        <v>0.001506900928476741</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.004359728380386835</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.003255792740506832</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.001001442772070059</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.01065601826391032</v>
+        <v>24621.976</v>
       </c>
       <c r="O11">
-        <v>0.002154959901494407</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2347,118 +2149,100 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.001970949367332786</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.2835585692067537</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.0215035917305931</v>
+        <v>69181.86199999999</v>
       </c>
       <c r="V11">
-        <v>0.0006464902523238492</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>152750</v>
       </c>
       <c r="X11">
-        <v>0.0004759263799290417</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.007563917468080849</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>472678.245</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>597770.7290000001</v>
       </c>
       <c r="AB11">
-        <v>0.1144749595470687</v>
+        <v>7660.023</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>22185.491</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>34634.465</v>
       </c>
       <c r="AE11">
-        <v>0.03659360041019787</v>
+        <v>431006.533</v>
       </c>
       <c r="AF11">
-        <v>0.0002641688808467824</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.002260692482703568</v>
+        <v>229833.138</v>
       </c>
       <c r="AI11">
-        <v>0.008954290069781523</v>
+        <v>62239.12</v>
       </c>
       <c r="AJ11">
-        <v>0.003997076959238116</v>
+        <v>72785.375</v>
       </c>
       <c r="AK11">
-        <v>0.0009513892367088064</v>
+        <v>19596.086</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>485090.37</v>
       </c>
       <c r="AN11">
-        <v>0.01449487382303336</v>
+        <v>593444.78</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>26426.834</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>104429.396</v>
       </c>
       <c r="AQ11">
-        <v>0.0006830102496933948</v>
+        <v>9667.735000000001</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>74397.705</v>
       </c>
       <c r="AS11">
-        <v>0.03549298045459306</v>
+        <v>103259.407</v>
       </c>
       <c r="AT11">
-        <v>0.0004093317213178545</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>0.0004106644649240098</v>
+        <v>7290.187</v>
       </c>
       <c r="AV11">
-        <v>0.0007545840706750164</v>
+        <v>163532.952</v>
       </c>
       <c r="AW11">
         <v>0</v>
       </c>
-      <c r="AX11">
-        <v>0.0002053369061829644</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0.0281144266087124</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0.004661003948045961</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2466,452 +2250,416 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>399757.347</v>
       </c>
       <c r="D12">
-        <v>0.01133128029132028</v>
+        <v>354106.074</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>11893.183</v>
       </c>
       <c r="F12">
-        <v>0.1025254113149563</v>
+        <v>29764.582</v>
       </c>
       <c r="G12">
-        <v>0.002234237280047029</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.003714973745273005</v>
+        <v>1101454.2</v>
       </c>
       <c r="I12">
-        <v>0.003183375967842557</v>
+        <v>187329.015</v>
       </c>
       <c r="J12">
-        <v>0.006765669448986094</v>
+        <v>91822.52</v>
       </c>
       <c r="K12">
-        <v>0.1538958235693056</v>
+        <v>60187.079</v>
       </c>
       <c r="L12">
-        <v>0.002735765832252646</v>
+        <v>44458.106</v>
       </c>
       <c r="M12">
-        <v>0.007308357359598146</v>
+        <v>38374.264</v>
       </c>
       <c r="N12">
-        <v>0.03163694637802854</v>
+        <v>59241.027</v>
       </c>
       <c r="O12">
-        <v>0.005267802716784921</v>
+        <v>174490.564</v>
       </c>
       <c r="P12">
-        <v>0.005640957578399965</v>
+        <v>50413.522</v>
       </c>
       <c r="Q12">
-        <v>0.001395971671309517</v>
+        <v>44653.768</v>
       </c>
       <c r="R12">
-        <v>0.008167182765968419</v>
+        <v>35539.987</v>
       </c>
       <c r="S12">
-        <v>0.004900718736979316</v>
+        <v>136616.653</v>
       </c>
       <c r="T12">
-        <v>0.002536222478312483</v>
+        <v>2302071.21</v>
       </c>
       <c r="U12">
-        <v>0.03113183028900016</v>
+        <v>168236.345</v>
       </c>
       <c r="V12">
-        <v>0.001358823560603908</v>
+        <v>36258.008</v>
       </c>
       <c r="W12">
-        <v>0.001759784770560264</v>
+        <v>64853.051</v>
       </c>
       <c r="X12">
-        <v>0.002610188681752569</v>
+        <v>61375.646</v>
       </c>
       <c r="Y12">
-        <v>0.01282772158736272</v>
+        <v>345497.518</v>
       </c>
       <c r="Z12">
-        <v>0.0006617051892600977</v>
+        <v>47523.183</v>
       </c>
       <c r="AA12">
-        <v>0.208536027319207</v>
+        <v>2209520.96</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>246116.705</v>
       </c>
       <c r="AC12">
-        <v>0.2321783159553873</v>
+        <v>23233.368</v>
       </c>
       <c r="AD12">
-        <v>0.003270471976510216</v>
+        <v>23997.772</v>
       </c>
       <c r="AE12">
-        <v>0.04672168461515738</v>
+        <v>74219.007</v>
       </c>
       <c r="AF12">
-        <v>0.0004140023932848532</v>
+        <v>252531.106</v>
       </c>
       <c r="AG12">
-        <v>0.002795812441115708</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>7858.282</v>
       </c>
       <c r="AI12">
-        <v>0.05722693966428943</v>
+        <v>2725.505</v>
       </c>
       <c r="AJ12">
-        <v>0.004524518211951665</v>
+        <v>90752.694</v>
       </c>
       <c r="AK12">
-        <v>0.00255660374427208</v>
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>0.0127195896697698</v>
+        <v>82757.51300000001</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>62366.53</v>
       </c>
       <c r="AN12">
-        <v>0.02366091605785379</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>0.04811299264958168</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.0006471882621553247</v>
+        <v>72588.561</v>
       </c>
       <c r="AQ12">
-        <v>0.002657531450047381</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>336376.714</v>
       </c>
       <c r="AS12">
-        <v>0.1223802245577856</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>0.001323904117601884</v>
+        <v>46211.291</v>
       </c>
       <c r="AU12">
-        <v>0.0009477093880117749</v>
+        <v>0</v>
       </c>
       <c r="AV12">
-        <v>0.001820944666876673</v>
+        <v>89089.70600000001</v>
       </c>
       <c r="AW12">
-        <v>0.008438417453129125</v>
-      </c>
-      <c r="AX12">
-        <v>0.002237146589693026</v>
-      </c>
-      <c r="AY12">
-        <v>0.002977183154245027</v>
-      </c>
-      <c r="AZ12">
-        <v>0.04393696995398115</v>
-      </c>
-      <c r="BA12">
-        <v>0.02087957892938162</v>
-      </c>
-      <c r="BB12">
-        <v>0.006194420897738224</v>
-      </c>
-      <c r="BC12">
-        <v>0.01582928807915873</v>
+        <v>32477.033</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0.07606439301518275</v>
+        <v>838280.944</v>
       </c>
       <c r="D13">
-        <v>0.01170009170317469</v>
+        <v>84554.303</v>
       </c>
       <c r="E13">
-        <v>0.00691778666432597</v>
+        <v>22029.19</v>
       </c>
       <c r="F13">
-        <v>0.1654404737767637</v>
+        <v>18998.148</v>
       </c>
       <c r="G13">
-        <v>0.001168083740906973</v>
+        <v>16229.093</v>
       </c>
       <c r="H13">
-        <v>0.00255755413293219</v>
+        <v>1858535.12</v>
       </c>
       <c r="I13">
-        <v>0.001808883113815868</v>
+        <v>180545.924</v>
       </c>
       <c r="J13">
-        <v>0.006582182885661029</v>
+        <v>152173.905</v>
       </c>
       <c r="K13">
-        <v>0.01427307110761823</v>
+        <v>84264.94</v>
       </c>
       <c r="L13">
-        <v>0.002082570858739697</v>
+        <v>60743.069</v>
       </c>
       <c r="M13">
-        <v>0.003613230131263907</v>
+        <v>15523.247</v>
       </c>
       <c r="N13">
-        <v>0.02631156065340861</v>
+        <v>36058.529</v>
       </c>
       <c r="O13">
-        <v>0.006496501131774398</v>
+        <v>181162.614</v>
       </c>
       <c r="P13">
-        <v>0.002484770435890015</v>
+        <v>58354.482</v>
       </c>
       <c r="Q13">
-        <v>0.000751770687813153</v>
+        <v>20193.919</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>49318.705</v>
       </c>
       <c r="S13">
-        <v>0.00320646970205404</v>
+        <v>139947.157</v>
       </c>
       <c r="T13">
-        <v>0.3545375309516274</v>
+        <v>3388860.42</v>
       </c>
       <c r="U13">
-        <v>0.003409816539157378</v>
+        <v>77425.065</v>
       </c>
       <c r="V13">
-        <v>0.001428865575456559</v>
+        <v>42637.632</v>
       </c>
       <c r="W13">
-        <v>0.0007811679863673815</v>
+        <v>27213.881</v>
       </c>
       <c r="X13">
-        <v>0.001311291746841403</v>
+        <v>64067.279</v>
       </c>
       <c r="Y13">
-        <v>0.0103199687188855</v>
+        <v>336237.503</v>
       </c>
       <c r="Z13">
-        <v>0.000643183346021627</v>
+        <v>8798.486999999999</v>
       </c>
       <c r="AA13">
-        <v>0.3368890054000628</v>
+        <v>1282324.93</v>
       </c>
       <c r="AB13">
-        <v>0.1556772848081884</v>
+        <v>148096.877</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>0.002316700715582459</v>
+        <v>33640.343</v>
       </c>
       <c r="AE13">
-        <v>0.05245430183050834</v>
+        <v>53660.307</v>
       </c>
       <c r="AF13">
-        <v>0.0003658369659547971</v>
+        <v>403652.485</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1559.903</v>
       </c>
       <c r="AH13">
-        <v>0.002788160742656329</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>0.03755679639876897</v>
+        <v>4835.798</v>
       </c>
       <c r="AJ13">
-        <v>0.002032417278508681</v>
+        <v>14086.822</v>
       </c>
       <c r="AK13">
-        <v>0.002131475471641162</v>
+        <v>0</v>
       </c>
       <c r="AL13">
-        <v>0.005833817129832963</v>
+        <v>19433.262</v>
       </c>
       <c r="AM13">
-        <v>0.0008440659674252746</v>
+        <v>36845.392</v>
       </c>
       <c r="AN13">
-        <v>0.01029203371343189</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>369.543</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>23750.205</v>
       </c>
       <c r="AQ13">
-        <v>0.002134513165744237</v>
+        <v>132655.408</v>
       </c>
       <c r="AR13">
-        <v>0.00957706253209091</v>
+        <v>234601.823</v>
       </c>
       <c r="AS13">
-        <v>0.1032193269888352</v>
+        <v>10642.328</v>
       </c>
       <c r="AT13">
-        <v>0.000830701991389739</v>
+        <v>65712.79399999999</v>
       </c>
       <c r="AU13">
-        <v>0.001033312133253241</v>
+        <v>6930.19</v>
       </c>
       <c r="AV13">
         <v>0</v>
       </c>
       <c r="AW13">
-        <v>0.004955438066393304</v>
-      </c>
-      <c r="AX13">
-        <v>0.001738968089257431</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0.04785959542352133</v>
-      </c>
-      <c r="BA13">
-        <v>0.02059599087773453</v>
-      </c>
-      <c r="BB13">
-        <v>0.006608695890036398</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
+        <v>131982.153</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0.001407156855125034</v>
+        <v>305571.705</v>
       </c>
       <c r="D14">
-        <v>0.009468417034376978</v>
+        <v>106659.714</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>32479.7</v>
       </c>
       <c r="F14">
-        <v>0.2314893956072115</v>
+        <v>7035.589</v>
       </c>
       <c r="G14">
-        <v>0.002036539466539383</v>
+        <v>17030.869</v>
       </c>
       <c r="H14">
-        <v>0.001858490509639437</v>
+        <v>1489519.01</v>
       </c>
       <c r="I14">
-        <v>0.002563472735831123</v>
+        <v>121404.955</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>79659.84600000001</v>
       </c>
       <c r="K14">
-        <v>0.0072599852976144</v>
+        <v>37648.292</v>
       </c>
       <c r="L14">
-        <v>0.001643190668561916</v>
+        <v>51271.982</v>
       </c>
       <c r="M14">
-        <v>0.001414751876545101</v>
+        <v>72198.235</v>
       </c>
       <c r="N14">
-        <v>0.02475877382494026</v>
+        <v>66058.667</v>
       </c>
       <c r="O14">
-        <v>0.002291908874719085</v>
+        <v>90298.76300000001</v>
       </c>
       <c r="P14">
-        <v>0.001696218039507322</v>
+        <v>53077.138</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>8755.596</v>
       </c>
       <c r="S14">
-        <v>0.002736429595477696</v>
+        <v>91719.49000000001</v>
       </c>
       <c r="T14">
-        <v>0.4159564879227424</v>
+        <v>3669641.58</v>
       </c>
       <c r="U14">
-        <v>0.02680547787288453</v>
+        <v>75891.93799999999</v>
       </c>
       <c r="V14">
-        <v>0.0008056899005049294</v>
+        <v>82532.97500000001</v>
       </c>
       <c r="W14">
-        <v>0.002450578503313676</v>
+        <v>44270.885</v>
       </c>
       <c r="X14">
-        <v>0.002038923006607792</v>
+        <v>161804.108</v>
       </c>
       <c r="Y14">
-        <v>0.01008759461997764</v>
+        <v>145046.363</v>
       </c>
       <c r="Z14">
-        <v>0.0006278384146491874</v>
+        <v>7990.802</v>
       </c>
       <c r="AA14">
-        <v>0.201221336066519</v>
+        <v>1658360.32</v>
       </c>
       <c r="AB14">
-        <v>0.1278613377360837</v>
+        <v>54265.537</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0.003120060649675286</v>
+        <v>21928.051</v>
       </c>
       <c r="AE14">
-        <v>0.06796466802564964</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>316170.24</v>
       </c>
       <c r="AG14">
-        <v>0.0009692170000536114</v>
+        <v>2092.211</v>
       </c>
       <c r="AH14">
-        <v>0.001010251385582748</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>0.03518856919693387</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0.003590657415729979</v>
+        <v>104712.881</v>
       </c>
       <c r="AK14">
-        <v>0.00159702459411416</v>
+        <v>238548.154</v>
       </c>
       <c r="AL14">
-        <v>0.01062911309328504</v>
+        <v>60001.755</v>
       </c>
       <c r="AM14">
-        <v>0.001472667904494761</v>
+        <v>9448.647999999999</v>
       </c>
       <c r="AN14">
-        <v>0.01789071677635425</v>
+        <v>37885.502</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -2920,213 +2668,177 @@
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>0.001672958484366694</v>
+        <v>65056.212</v>
       </c>
       <c r="AR14">
-        <v>0.03145830401666963</v>
+        <v>272420.275</v>
       </c>
       <c r="AS14">
-        <v>0.1246256303195025</v>
+        <v>7435.253</v>
       </c>
       <c r="AT14">
-        <v>0.001210295522566078</v>
+        <v>23718.634</v>
       </c>
       <c r="AU14">
         <v>0</v>
       </c>
       <c r="AV14">
-        <v>0.00150394129996352</v>
+        <v>44447.75</v>
       </c>
       <c r="AW14">
-        <v>0.007642289726474928</v>
-      </c>
-      <c r="AX14">
-        <v>0.002811474439659533</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0.01768501882775306</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0.006515922686849179</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
+        <v>474655.151</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>0.07787192437982537</v>
+        <v>126483.009</v>
       </c>
       <c r="D15">
-        <v>0.0167821734915854</v>
+        <v>104429.852</v>
       </c>
       <c r="E15">
-        <v>0.006402401771591517</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.09717688258697585</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.001548363252284698</v>
+        <v>109713.447</v>
       </c>
       <c r="H15">
-        <v>0.003680554904681535</v>
+        <v>56112.641</v>
       </c>
       <c r="I15">
-        <v>0.001322683201494737</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.007075051560225035</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1514720004754428</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.001560867830385405</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00686765555000282</v>
+        <v>14983.82</v>
       </c>
       <c r="N15">
-        <v>0.0274977070172355</v>
+        <v>30684.274</v>
       </c>
       <c r="O15">
-        <v>0.007539175819784636</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.005557848244011802</v>
+        <v>33247.367</v>
       </c>
       <c r="Q15">
-        <v>0.001515579821334389</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>0.004950605494314174</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>0.005330530517213031</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0.3598216541975143</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>34229.19</v>
       </c>
       <c r="V15">
-        <v>0.001552481974031548</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>92510.823</v>
       </c>
       <c r="X15">
-        <v>0.005521190349053192</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>0.01476488835677232</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.001627890295626192</v>
+        <v>306491.257</v>
       </c>
       <c r="AA15">
-        <v>0.3037232467074391</v>
+        <v>152608.676</v>
       </c>
       <c r="AB15">
-        <v>0.01912050865072563</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.276194655471159</v>
+        <v>25702.002</v>
       </c>
       <c r="AD15">
-        <v>0.003410304703419516</v>
+        <v>206895.686</v>
       </c>
       <c r="AE15">
-        <v>0.05316760346613549</v>
+        <v>481010.548</v>
       </c>
       <c r="AF15">
-        <v>0.0003069849514249844</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>0.005284258712645824</v>
+        <v>2908.3</v>
       </c>
       <c r="AH15">
-        <v>0.002437539905821975</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>0.05072526536683951</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>0.001915125089546908</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>0.004039670749370517</v>
+        <v>27673.246</v>
       </c>
       <c r="AL15">
-        <v>0.02990916864005784</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>0.001984610833362905</v>
+        <v>458973.722</v>
       </c>
       <c r="AN15">
-        <v>0.009012957331050052</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>0.0328979790276084</v>
+        <v>1665.423</v>
       </c>
       <c r="AP15">
-        <v>0.001252382287207948</v>
+        <v>31489.043</v>
       </c>
       <c r="AQ15">
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0.009648354187771626</v>
+        <v>62394.783</v>
       </c>
       <c r="AS15">
-        <v>0.1123929139273383</v>
+        <v>75033.538</v>
       </c>
       <c r="AT15">
-        <v>0.0009359200214262203</v>
+        <v>0</v>
       </c>
       <c r="AU15">
-        <v>0.0005415158203300386</v>
+        <v>8314.974</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>207063.599</v>
       </c>
       <c r="AW15">
-        <v>0.003002926968924792</v>
-      </c>
-      <c r="AX15">
-        <v>0.004102311734456353</v>
-      </c>
-      <c r="AY15">
-        <v>0.005355641793850348</v>
-      </c>
-      <c r="AZ15">
-        <v>0.031281548878011</v>
-      </c>
-      <c r="BA15">
-        <v>0.009640791081458025</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <v>0.01075664405091573</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3134,189 +2846,171 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0.000299115211566538</v>
+        <v>338073.181</v>
       </c>
       <c r="D16">
-        <v>0.01359111089121103</v>
+        <v>390540.994</v>
       </c>
       <c r="E16">
-        <v>0.01411667348420736</v>
+        <v>9254.915000000001</v>
       </c>
       <c r="F16">
-        <v>0.1345867499212087</v>
+        <v>23105.226</v>
       </c>
       <c r="G16">
-        <v>0.000750135698449651</v>
+        <v>24257.029</v>
       </c>
       <c r="H16">
-        <v>0.001268058316511672</v>
+        <v>1068998.47</v>
       </c>
       <c r="I16">
-        <v>0.001815834155821141</v>
+        <v>147016.414</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>89072.61599999999</v>
       </c>
       <c r="K16">
-        <v>0.1588127707460431</v>
+        <v>57816.897</v>
       </c>
       <c r="L16">
-        <v>0.004527579265328219</v>
+        <v>33021.284</v>
       </c>
       <c r="M16">
-        <v>0.004014067310477688</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.01663221135813069</v>
+        <v>83596.448</v>
       </c>
       <c r="O16">
-        <v>0.003598017279923136</v>
+        <v>173991.863</v>
       </c>
       <c r="P16">
-        <v>0.003163516415630554</v>
+        <v>58686.762</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>18832.185</v>
       </c>
       <c r="R16">
-        <v>0.005466627460539258</v>
+        <v>24450.617</v>
       </c>
       <c r="S16">
-        <v>0.003565120372669634</v>
+        <v>67205.247</v>
       </c>
       <c r="T16">
-        <v>0.3070632900060246</v>
+        <v>2275288.46</v>
       </c>
       <c r="U16">
-        <v>0.03441671722311717</v>
+        <v>168024.673</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>24473.277</v>
       </c>
       <c r="W16">
-        <v>0.001022387424968543</v>
+        <v>58901.79</v>
       </c>
       <c r="X16">
-        <v>0.003634410582426452</v>
+        <v>55193.142</v>
       </c>
       <c r="Y16">
-        <v>0.00962766950317088</v>
+        <v>356558.645</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>45526.398</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>2738570.3</v>
       </c>
       <c r="AB16">
-        <v>0.07887073064779056</v>
+        <v>406227.919</v>
       </c>
       <c r="AC16">
-        <v>0.3912578107779151</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>0.0001720801572109039</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>0.03939871762566525</v>
+        <v>85893.13400000001</v>
       </c>
       <c r="AF16">
-        <v>0.0003318340631353746</v>
+        <v>227636.887</v>
       </c>
       <c r="AG16">
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>0.0007949285379816182</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>0.02697032187028985</v>
+        <v>2496.345</v>
       </c>
       <c r="AJ16">
-        <v>0.00382941834109256</v>
+        <v>132703.994</v>
       </c>
       <c r="AK16">
-        <v>0.0026632403953608</v>
+        <v>0</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>86522.16800000001</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>39445.652</v>
       </c>
       <c r="AN16">
-        <v>0.01964305877816368</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>0.03371012488242189</v>
+        <v>579.061</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>70944.246</v>
       </c>
       <c r="AQ16">
-        <v>0.001687433830182798</v>
+        <v>75646.492</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>519610.005</v>
       </c>
       <c r="AS16">
-        <v>0.07129469337743992</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>0.0009368376392169405</v>
+        <v>16443.352</v>
       </c>
       <c r="AU16">
-        <v>0.001057982249015303</v>
+        <v>0</v>
       </c>
       <c r="AV16">
-        <v>0.002182149288702676</v>
+        <v>94647.845</v>
       </c>
       <c r="AW16">
-        <v>0.001007416460353909</v>
-      </c>
-      <c r="AX16">
-        <v>0.001716066676959188</v>
-      </c>
-      <c r="AY16">
-        <v>0.002528884800101546</v>
-      </c>
-      <c r="AZ16">
-        <v>0.0338838042355695</v>
-      </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <v>0.004739026681457014</v>
-      </c>
-      <c r="BC16">
-        <v>0.05060781310820026</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009869927760718319</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.1036542649410483</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008302175242578734</v>
+        <v>82528.939</v>
       </c>
       <c r="H17">
-        <v>0.001745437433055728</v>
+        <v>29368.043</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3325,19 +3019,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.005684771540721136</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.001937048881457475</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.003564375932383956</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.0150491656497578</v>
+        <v>27090.395</v>
       </c>
       <c r="O17">
-        <v>0.002187045967458801</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3349,314 +3043,278 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.002440304950069774</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>0.3158652179685562</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0.02446497116637677</v>
+        <v>34332.031</v>
       </c>
       <c r="V17">
-        <v>0.0004711618514639928</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0.001179071894943782</v>
+        <v>88409.88499999999</v>
       </c>
       <c r="X17">
-        <v>0.0008786067390419637</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>0.007437304246281723</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>213759.52</v>
       </c>
       <c r="AA17">
-        <v>0.1554504437718315</v>
+        <v>197160.858</v>
       </c>
       <c r="AB17">
-        <v>0.06354507789841185</v>
+        <v>0</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>0.001616200567509846</v>
+        <v>337474.946</v>
       </c>
       <c r="AE17">
-        <v>0.04827128229473172</v>
+        <v>344036.303</v>
       </c>
       <c r="AF17">
-        <v>0.0006757741559669094</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>0.001202714568435548</v>
+        <v>209185.345</v>
       </c>
       <c r="AI17">
-        <v>0.02456960237614864</v>
+        <v>13575.851</v>
       </c>
       <c r="AJ17">
-        <v>0.004369982443249521</v>
+        <v>44366.259</v>
       </c>
       <c r="AK17">
-        <v>0.001646276351570382</v>
+        <v>16177.715</v>
       </c>
       <c r="AL17">
-        <v>0.004854930736402029</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>0.001689377993950833</v>
+        <v>311318.656</v>
       </c>
       <c r="AN17">
-        <v>0.008565009578892707</v>
+        <v>414769.738</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>10413.931</v>
       </c>
       <c r="AP17">
-        <v>0.0006549700280237626</v>
+        <v>107419.985</v>
       </c>
       <c r="AQ17">
-        <v>0.000932562320811715</v>
+        <v>22542.747</v>
       </c>
       <c r="AR17">
-        <v>0.0119207919010843</v>
+        <v>89269.876</v>
       </c>
       <c r="AS17">
-        <v>0.07942899322065057</v>
+        <v>50115.339</v>
       </c>
       <c r="AT17">
-        <v>0.0005445289772789382</v>
+        <v>0</v>
       </c>
       <c r="AU17">
-        <v>0.0001226918402836892</v>
+        <v>34227.788</v>
       </c>
       <c r="AV17">
-        <v>0.0009684712614063304</v>
+        <v>119093.126</v>
       </c>
       <c r="AW17">
-        <v>0.004777328611749516</v>
-      </c>
-      <c r="AX17">
-        <v>0.001374428913829676</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0.0187801192613811</v>
-      </c>
-      <c r="BA17">
-        <v>0.03070012696589021</v>
-      </c>
-      <c r="BB17">
-        <v>0.00725492000560849</v>
-      </c>
-      <c r="BC17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="1:49">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.09632340403922485</v>
+        <v>340253.04</v>
       </c>
       <c r="D18">
-        <v>0.01276762391723791</v>
+        <v>139416.016</v>
       </c>
       <c r="E18">
-        <v>0.004992026730194068</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.1149375841945308</v>
+        <v>21803.056</v>
       </c>
       <c r="G18">
-        <v>0.001513211574513442</v>
+        <v>17688.804</v>
       </c>
       <c r="H18">
-        <v>0.002687817217767151</v>
+        <v>98148.342</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>17160.095</v>
       </c>
       <c r="J18">
-        <v>0.008694104157700184</v>
+        <v>67309.308</v>
       </c>
       <c r="K18">
-        <v>0.1223557097144002</v>
+        <v>60740.526</v>
       </c>
       <c r="L18">
-        <v>0.001507816744387097</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.02825168656399318</v>
+        <v>24492.495</v>
       </c>
       <c r="O18">
-        <v>0.007124988106962563</v>
+        <v>147018.362</v>
       </c>
       <c r="P18">
-        <v>0.006252686598976603</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.001670700552388236</v>
+        <v>25545.177</v>
       </c>
       <c r="R18">
-        <v>0.004556587725016004</v>
+        <v>23950.62</v>
       </c>
       <c r="S18">
-        <v>0.005462954324797341</v>
+        <v>108287.107</v>
       </c>
       <c r="T18">
-        <v>0.4131041111287581</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0.004461914996510529</v>
+        <v>39353.014</v>
       </c>
       <c r="V18">
-        <v>0.001665057725150062</v>
+        <v>78858.466</v>
       </c>
       <c r="W18">
-        <v>0.001150246805099087</v>
+        <v>64387.498</v>
       </c>
       <c r="X18">
-        <v>0.003864234330776981</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>0.01371203804277781</v>
+        <v>206145.053</v>
       </c>
       <c r="Z18">
-        <v>0.001646480916972134</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.3267576930666395</v>
+        <v>1491248.75</v>
       </c>
       <c r="AB18">
-        <v>0.1543733821465196</v>
+        <v>108917.642</v>
       </c>
       <c r="AC18">
-        <v>0.2886322581803787</v>
+        <v>10741.196</v>
       </c>
       <c r="AD18">
-        <v>0.001668686746335347</v>
+        <v>47941.94</v>
       </c>
       <c r="AE18">
-        <v>0.05918686946185881</v>
+        <v>42732.771</v>
       </c>
       <c r="AF18">
-        <v>0.0004377794839543594</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>0.002290159303147701</v>
+        <v>6157.337</v>
       </c>
       <c r="AH18">
-        <v>0.001117616505469189</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>0.04324453537516994</v>
+        <v>3458.019</v>
       </c>
       <c r="AJ18">
-        <v>0.002681227097551794</v>
+        <v>39836.359</v>
       </c>
       <c r="AK18">
-        <v>0.003317657963616497</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>0.0168924885393046</v>
+        <v>28846.415</v>
       </c>
       <c r="AM18">
-        <v>0.002250376473347789</v>
+        <v>47302.419</v>
       </c>
       <c r="AN18">
-        <v>0.01039437042571204</v>
+        <v>63230.032</v>
       </c>
       <c r="AO18">
-        <v>0.02640101791521801</v>
+        <v>54.422</v>
       </c>
       <c r="AP18">
-        <v>0.001305932808253119</v>
+        <v>68610.96000000001</v>
       </c>
       <c r="AQ18">
-        <v>0.001091097225367218</v>
+        <v>128513.166</v>
       </c>
       <c r="AR18">
-        <v>0.007233646656240602</v>
+        <v>242011.465</v>
       </c>
       <c r="AS18">
-        <v>0.1186837219917443</v>
+        <v>17249.497</v>
       </c>
       <c r="AT18">
-        <v>0.0009342045410540317</v>
+        <v>0</v>
       </c>
       <c r="AU18">
-        <v>0.001076923741540782</v>
+        <v>0</v>
       </c>
       <c r="AV18">
-        <v>0.001813568319459302</v>
+        <v>88903.905</v>
       </c>
       <c r="AW18">
-        <v>0.002734537885025241</v>
-      </c>
-      <c r="AX18">
-        <v>0.002703607171674389</v>
-      </c>
-      <c r="AY18">
-        <v>0.004421759157430699</v>
-      </c>
-      <c r="AZ18">
-        <v>0.04445063819617786</v>
-      </c>
-      <c r="BA18">
-        <v>0.01235731631575981</v>
-      </c>
-      <c r="BB18">
-        <v>0.00570353604303292</v>
-      </c>
-      <c r="BC18">
-        <v>0.009979506396176967</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="1:49">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>64938.464</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>58654.942</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.001378804065992564</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>15312.965</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2012.812</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -3668,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>16795.714</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>26926.851</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3686,40 +3344,40 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0.4187083220121124</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>19411.721</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>81825.962</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.009387332238183761</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>255475.964</v>
       </c>
       <c r="AA19">
-        <v>1.378220070790764</v>
+        <v>210357.756</v>
       </c>
       <c r="AB19">
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.5234648888579188</v>
+        <v>21055.611</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>153027.775</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>305995.787</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -3731,70 +3389,52 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>19595.418</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>32264.811</v>
       </c>
       <c r="AK19">
-        <v>0.001974878755463643</v>
+        <v>38226.037</v>
       </c>
       <c r="AL19">
-        <v>0.007195244745041029</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>289147.472</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>206953.934</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>80872.325</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>17543.09</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>43260.311</v>
       </c>
       <c r="AS19">
-        <v>0.01858426383193172</v>
+        <v>53409.225</v>
       </c>
       <c r="AT19">
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>2714.009</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>84619.893</v>
       </c>
       <c r="AW19">
         <v>0</v>
       </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>0.009883159139433219</v>
-      </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="1:49">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3802,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>270669.539</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3811,124 +3451,124 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>15004.235</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>17701.669</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>185460.01</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>78100.285</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>42796.231</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.00105579371821217</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>30716.832</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>145039.545</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>56253.938</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>18726.669</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>18348.308</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>78162.44100000001</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>52298.373</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>45061.141</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>43015.306</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>7196.82</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>248396.237</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>11276.853</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1393093.36</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>150089.955</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>26630.954</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>37042.103</v>
       </c>
       <c r="AF20">
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1368.263</v>
       </c>
       <c r="AH20">
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0.09589410715151604</v>
+        <v>780.502</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>30466.103</v>
       </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>18276.161</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>42539.534</v>
       </c>
       <c r="AN20">
-        <v>0.1907869299966951</v>
+        <v>26787.272</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>7045.179</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>61067.894</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>108035.176</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>226894.136</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>5980.824</v>
       </c>
       <c r="AT20">
         <v>0</v>
@@ -3937,365 +3577,311 @@
         <v>0</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>40856.117</v>
       </c>
       <c r="AW20">
         <v>0</v>
       </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0.0110466331038683</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="1:49">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>253185.572</v>
       </c>
       <c r="D21">
-        <v>0.01366091586345679</v>
+        <v>397104.634</v>
       </c>
       <c r="E21">
-        <v>0.006290169625204563</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.1390011291487446</v>
+        <v>21014.813</v>
       </c>
       <c r="G21">
-        <v>0.002209164128334374</v>
+        <v>34620.708</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>213880.184</v>
       </c>
       <c r="I21">
-        <v>0.001523408425133338</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.007533299596992955</v>
+        <v>43950.139</v>
       </c>
       <c r="K21">
-        <v>0.08598976038818056</v>
+        <v>24756.415</v>
       </c>
       <c r="L21">
-        <v>0.002640108643783536</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.003942269514546756</v>
+        <v>43677.026</v>
       </c>
       <c r="N21">
-        <v>0.03622253512062688</v>
+        <v>68359.11500000001</v>
       </c>
       <c r="O21">
-        <v>0.006523872721933437</v>
+        <v>138096.924</v>
       </c>
       <c r="P21">
-        <v>0.003430550422708431</v>
+        <v>49639.009</v>
       </c>
       <c r="Q21">
-        <v>0.0009371987451368023</v>
+        <v>10195.794</v>
       </c>
       <c r="R21">
-        <v>0.003056116793470075</v>
+        <v>19830.187</v>
       </c>
       <c r="S21">
-        <v>0.003498708934381523</v>
+        <v>131627.383</v>
       </c>
       <c r="T21">
-        <v>0.3309320267669795</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>182995.827</v>
       </c>
       <c r="V21">
-        <v>0.001788591958382982</v>
+        <v>34308.948</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>72006.088</v>
       </c>
       <c r="X21">
-        <v>0.001852722864854128</v>
+        <v>6143.105</v>
       </c>
       <c r="Y21">
-        <v>0.01252741573084569</v>
+        <v>300031.081</v>
       </c>
       <c r="Z21">
-        <v>0.0007439500205727327</v>
+        <v>51118.726</v>
       </c>
       <c r="AA21">
-        <v>0.3120308392109687</v>
+        <v>2176109.27</v>
       </c>
       <c r="AB21">
-        <v>0.1340900323372948</v>
+        <v>323048.841</v>
       </c>
       <c r="AC21">
-        <v>0.1456589872982276</v>
+        <v>27439.852</v>
       </c>
       <c r="AD21">
-        <v>0.002286721840105582</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>0.05458240372416825</v>
+        <v>94602.622</v>
       </c>
       <c r="AF21">
-        <v>0.0003452176189777147</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>0.001853571511303945</v>
+        <v>0</v>
       </c>
       <c r="AH21">
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0.03846305569992992</v>
+        <v>11896.549</v>
       </c>
       <c r="AJ21">
-        <v>0.00189552423474751</v>
+        <v>0</v>
       </c>
       <c r="AK21">
-        <v>0.003766763131045659</v>
+        <v>0</v>
       </c>
       <c r="AL21">
-        <v>0.01085996219188339</v>
+        <v>73425.25199999999</v>
       </c>
       <c r="AM21">
-        <v>0.0008433053165200604</v>
+        <v>56705.335</v>
       </c>
       <c r="AN21">
-        <v>0.0168763357801971</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>0.01809095985635351</v>
+        <v>1565.622</v>
       </c>
       <c r="AP21">
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>0.001950505024586503</v>
+        <v>108614.071</v>
       </c>
       <c r="AR21">
-        <v>0.01008193163197978</v>
+        <v>454504.858</v>
       </c>
       <c r="AS21">
-        <v>0.1244105367581435</v>
+        <v>2533.845</v>
       </c>
       <c r="AT21">
         <v>0</v>
       </c>
       <c r="AU21">
-        <v>0.001394266905178486</v>
+        <v>12001.954</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>84972.558</v>
       </c>
       <c r="AW21">
-        <v>0.004133650925995846</v>
-      </c>
-      <c r="AX21">
-        <v>0.001712768161882908</v>
-      </c>
-      <c r="AY21">
-        <v>0.002082081504414561</v>
-      </c>
-      <c r="AZ21">
-        <v>0.05281273338143701</v>
-      </c>
-      <c r="BA21">
-        <v>0.01999620459261263</v>
-      </c>
-      <c r="BB21">
-        <v>0.005007479192267827</v>
-      </c>
-      <c r="BC21">
-        <v>0.007778130760680051</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="1:49">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>505627.219</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>209125.746</v>
       </c>
       <c r="E22">
-        <v>0.00842792085915822</v>
+        <v>7187.179</v>
       </c>
       <c r="F22">
-        <v>0.03590182295545687</v>
+        <v>31241.596</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>33697.072</v>
       </c>
       <c r="H22">
-        <v>0.002610182841371306</v>
+        <v>731264.6949999999</v>
       </c>
       <c r="I22">
-        <v>0.005691877652326937</v>
+        <v>225904.197</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>129304.655</v>
       </c>
       <c r="K22">
-        <v>0.005563210463944632</v>
+        <v>139344.772</v>
       </c>
       <c r="L22">
-        <v>0.001236384647588857</v>
+        <v>19717.155</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.007851368332814848</v>
+        <v>38502.451</v>
       </c>
       <c r="O22">
-        <v>0.001703408134762583</v>
+        <v>205066.141</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>58736.762</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>22949.665</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>28863.867</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>213319.867</v>
       </c>
       <c r="T22">
-        <v>0.2184317037518169</v>
+        <v>708517.5820000001</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>44188.348</v>
       </c>
       <c r="V22">
-        <v>0.0002396078852662813</v>
+        <v>102148.252</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>96791.232</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>23801.913</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>382132.534</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1459708.25</v>
       </c>
       <c r="AB22">
-        <v>0.06306652095036545</v>
+        <v>117936.508</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>31757.286</v>
       </c>
       <c r="AD22">
-        <v>0.0009930207920599509</v>
+        <v>35303.222</v>
       </c>
       <c r="AE22">
-        <v>0.02778546909131401</v>
+        <v>118478.675</v>
       </c>
       <c r="AF22">
-        <v>0.000147870227325112</v>
+        <v>126122.114</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2718.758</v>
       </c>
       <c r="AH22">
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0.02894035317409408</v>
+        <v>2734.21</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>42271.844</v>
       </c>
       <c r="AK22">
-        <v>0.001815523832698</v>
+        <v>0</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>36788.236</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>90552.345</v>
       </c>
       <c r="AN22">
-        <v>0.008889073446196407</v>
+        <v>119445.291</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>49841.974</v>
       </c>
       <c r="AQ22">
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0.006569246004089588</v>
+        <v>303205.592</v>
       </c>
       <c r="AS22">
-        <v>0.1005544978106226</v>
+        <v>12878.601</v>
       </c>
       <c r="AT22">
-        <v>0.0002310440253198033</v>
+        <v>8043.573</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>22098.611</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>66371.33500000001</v>
       </c>
       <c r="AW22">
-        <v>0.02427259736372321</v>
-      </c>
-      <c r="AX22">
-        <v>0.002155383542273902</v>
-      </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
-      <c r="AZ22">
-        <v>0.004235135979480996</v>
-      </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22">
-        <v>0.008807546666224726</v>
-      </c>
-      <c r="BC22">
-        <v>0</v>
+        <v>44385.256</v>
       </c>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:49">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4303,31 +3889,31 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>107314.419</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02070826826413219</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.01575326236348903</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>41850.764</v>
       </c>
       <c r="H23">
-        <v>0.001787528920274787</v>
+        <v>178496.225</v>
       </c>
       <c r="I23">
-        <v>0.005794207943361397</v>
+        <v>79.319</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.0029634317314375</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -4336,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.003806973405020803</v>
+        <v>22248.481</v>
       </c>
       <c r="O23">
-        <v>0.0006745187260593342</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.001202124858101026</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -4354,16 +3940,16 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0.2302080511489741</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>57911.944</v>
       </c>
       <c r="V23">
-        <v>0.0004658884808060077</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.0004148712139983176</v>
+        <v>79115.09299999999</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -4372,37 +3958,37 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1.44224822983874E-05</v>
+        <v>90964.166</v>
       </c>
       <c r="AA23">
-        <v>0.07355002756416325</v>
+        <v>141352.698</v>
       </c>
       <c r="AB23">
-        <v>0.03095730256357407</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>48148.568</v>
       </c>
       <c r="AD23">
-        <v>0.00122112726675116</v>
+        <v>146868.401</v>
       </c>
       <c r="AE23">
-        <v>0.02809277185979344</v>
+        <v>209051.904</v>
       </c>
       <c r="AF23">
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>2537.722</v>
       </c>
       <c r="AH23">
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>0.01058519833754984</v>
+        <v>2892.571</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>32123.512</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -4411,25 +3997,25 @@
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>2.412033283107105E-05</v>
+        <v>167010.884</v>
       </c>
       <c r="AN23">
-        <v>0.007733730043612986</v>
+        <v>102730.331</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>12852.413</v>
       </c>
       <c r="AP23">
-        <v>0.001399057466250536</v>
+        <v>57150.374</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>35048.292</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>44450.04</v>
       </c>
       <c r="AS23">
-        <v>0.03005076396895863</v>
+        <v>36367.106</v>
       </c>
       <c r="AT23">
         <v>0</v>
@@ -4438,281 +4024,245 @@
         <v>0</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>142971.44</v>
       </c>
       <c r="AW23">
-        <v>0.02423940964872378</v>
-      </c>
-      <c r="AX23">
-        <v>0.0005165406040983328</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="AZ23">
-        <v>0.002205430709263806</v>
-      </c>
-      <c r="BA23">
-        <v>0</v>
-      </c>
-      <c r="BB23">
-        <v>0.01093548314188687</v>
-      </c>
-      <c r="BC23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="1:49">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>0.06846670263382676</v>
+        <v>111629.808</v>
       </c>
       <c r="D24">
-        <v>0.01125371036490399</v>
+        <v>122177.942</v>
       </c>
       <c r="E24">
-        <v>0.007644725071663305</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.109154284540803</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.001491506656321358</v>
+        <v>113477.75</v>
       </c>
       <c r="H24">
-        <v>0.003502079420762632</v>
+        <v>41128.725</v>
       </c>
       <c r="I24">
-        <v>0.001759647002429476</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.008570208747469289</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.01843578425667323</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.001963985681292754</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.00425418979387929</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.06181008693564673</v>
+        <v>23432.985</v>
       </c>
       <c r="O24">
-        <v>0.007231387772991075</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.004984241045547619</v>
+        <v>103758.671</v>
       </c>
       <c r="Q24">
-        <v>0.001139026031283819</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0.00437447130127962</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>0.4145987501933013</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>30678.355</v>
       </c>
       <c r="V24">
-        <v>0.001281665970729931</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>100305.021</v>
       </c>
       <c r="X24">
-        <v>0.001701149226329681</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>0.01441775917248171</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>0.00106490426187809</v>
+        <v>401006.691</v>
       </c>
       <c r="AA24">
-        <v>0.4377887885525896</v>
+        <v>278765.922</v>
       </c>
       <c r="AB24">
-        <v>0.142349657869438</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>12384.535</v>
       </c>
       <c r="AD24">
-        <v>0.003699375204963145</v>
+        <v>71448.13</v>
       </c>
       <c r="AE24">
-        <v>0.05815255129645457</v>
+        <v>429608.378</v>
       </c>
       <c r="AF24">
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>6805.212</v>
       </c>
       <c r="AH24">
-        <v>0.002792964204813629</v>
+        <v>197943.782</v>
       </c>
       <c r="AI24">
-        <v>0.03370542612207797</v>
+        <v>29252.262</v>
       </c>
       <c r="AJ24">
-        <v>0.002070558047608587</v>
+        <v>91274.90300000001</v>
       </c>
       <c r="AK24">
-        <v>0.003488836393059557</v>
+        <v>0</v>
       </c>
       <c r="AL24">
-        <v>0.008979997063428039</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>0.002724578741398154</v>
+        <v>478026.046</v>
       </c>
       <c r="AN24">
-        <v>0.01111036633480303</v>
+        <v>333121.079</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>123345.864</v>
       </c>
       <c r="AQ24">
-        <v>0.005432802758104828</v>
+        <v>14037.347</v>
       </c>
       <c r="AR24">
-        <v>0.01691536505152698</v>
+        <v>122353.433</v>
       </c>
       <c r="AS24">
-        <v>0.1417817023424845</v>
+        <v>63325.076</v>
       </c>
       <c r="AT24">
-        <v>0.001796180688941176</v>
+        <v>0</v>
       </c>
       <c r="AU24">
-        <v>0.0008435875845119623</v>
+        <v>0</v>
       </c>
       <c r="AV24">
-        <v>0.0008988786317631178</v>
+        <v>158079.399</v>
       </c>
       <c r="AW24">
-        <v>0.004228672645943543</v>
-      </c>
-      <c r="AX24">
-        <v>0.0037345968354882</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="AZ24">
-        <v>0.04813032491097977</v>
-      </c>
-      <c r="BA24">
-        <v>0.04066328983502951</v>
-      </c>
-      <c r="BB24">
-        <v>0.00406133138123631</v>
-      </c>
-      <c r="BC24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="1:49">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>427323.074</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>20047.935</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>9510.639999999999</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>32405.045</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1546656.5</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>154143.429</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1764189662595058</v>
+        <v>106316.495</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>69969.088</v>
       </c>
       <c r="M25">
-        <v>0.002237954442693858</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>29885.156</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>173620.454</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>19244.572</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>129926.355</v>
       </c>
       <c r="T25">
-        <v>0.5102186601216964</v>
+        <v>2170272.29</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>49134.066</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>75139.683</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>78592.357</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>73507.58500000001</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>300624.91</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>47067.222</v>
       </c>
       <c r="AA25">
-        <v>0.1561345029168269</v>
+        <v>1187191.54</v>
       </c>
       <c r="AB25">
-        <v>0.009511638604799054</v>
+        <v>79040.338</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -4721,174 +4271,156 @@
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>70989.121</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>307851.115</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2811.923</v>
       </c>
       <c r="AH25">
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0.00139327599468603</v>
+        <v>2811.99</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>40898.545</v>
       </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>29116.142</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>83409.217</v>
       </c>
       <c r="AN25">
-        <v>1.040822104623293</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>5752.628</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>68356.92</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>134209.829</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>169667.395</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>7983.845</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>40162.612</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>35295.071</v>
       </c>
       <c r="AV25">
-        <v>0.009705530519687916</v>
+        <v>71540.93700000001</v>
       </c>
       <c r="AW25">
-        <v>0.01032084767985939</v>
-      </c>
-      <c r="AX25">
-        <v>0</v>
-      </c>
-      <c r="AY25">
-        <v>0</v>
-      </c>
-      <c r="AZ25">
-        <v>0</v>
-      </c>
-      <c r="BA25">
-        <v>0</v>
-      </c>
-      <c r="BB25">
-        <v>0.0236550191694105</v>
-      </c>
-      <c r="BC25">
-        <v>0</v>
+        <v>156263.349</v>
       </c>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="1:49">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>234181.049</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.009076084239971031</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.03834503630628313</v>
+        <v>24593.27</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>31320.7</v>
       </c>
       <c r="H26">
-        <v>0.002220277300761791</v>
+        <v>203072.316</v>
       </c>
       <c r="I26">
-        <v>0.006583290381460573</v>
+        <v>134923.661</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>74023.13800000001</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0.001219060296124445</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0.006878430683455915</v>
+        <v>57057.022</v>
       </c>
       <c r="O26">
-        <v>0.001444349338135562</v>
+        <v>143264.964</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>70696.739</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>18884.879</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>19635.654</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>77617.198</v>
       </c>
       <c r="T26">
-        <v>0.2813196664730003</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>120399.77</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>41589.343</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>48652.341</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>7886.994</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>262991.019</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>43693.259</v>
       </c>
       <c r="AA26">
-        <v>0.08215733753098575</v>
+        <v>2462470.72</v>
       </c>
       <c r="AB26">
-        <v>0.06880987145353644</v>
+        <v>278724.987</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>14381.299</v>
       </c>
       <c r="AD26">
-        <v>0.0003344018235154944</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>0.03987625083516597</v>
+        <v>88990.516</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -4900,96 +4432,78 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0.02924809864848594</v>
+        <v>3359.859</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>139605.926</v>
       </c>
       <c r="AK26">
-        <v>0.0003858748315829448</v>
+        <v>0</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>102194.558</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>51773.007</v>
       </c>
       <c r="AN26">
-        <v>0.009499935173437569</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>956.585</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>78348.71799999999</v>
       </c>
       <c r="AQ26">
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>0.007103260767577762</v>
+        <v>446346.805</v>
       </c>
       <c r="AS26">
-        <v>0.04934619594276657</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>0.0003133662360099992</v>
+        <v>0</v>
       </c>
       <c r="AU26">
         <v>0</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>75083.83199999999</v>
       </c>
       <c r="AW26">
-        <v>0.03709124320366039</v>
-      </c>
-      <c r="AX26">
-        <v>0.003609240621898527</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26">
-        <v>0.008480949504941852</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26">
-        <v>0.01277185345536915</v>
-      </c>
-      <c r="BC26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="1:49">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>119827.328</v>
       </c>
       <c r="D27">
-        <v>0.009488902627958897</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.005063966031560108</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.06645829052182138</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.001012916350054956</v>
+        <v>40737.829</v>
       </c>
       <c r="H27">
-        <v>0.001722480515207664</v>
+        <v>155882.002</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>179.619</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4998,106 +4512,106 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0.00157444279100932</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0.02158593746482863</v>
+        <v>26473.179</v>
       </c>
       <c r="O27">
-        <v>0.003715933989002323</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>0.003242619144428948</v>
+        <v>23584.678</v>
       </c>
       <c r="Q27">
-        <v>0.001138151196330892</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>0.003443147084077099</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0.004705384490884448</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>0.3507598903215584</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0.0257322664134631</v>
+        <v>42382.338</v>
       </c>
       <c r="V27">
-        <v>0.0006659736204422649</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>0.0009252589562383222</v>
+        <v>55391.009</v>
       </c>
       <c r="X27">
-        <v>0.004115101032733923</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>0.009636200598161225</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.0008859204925339074</v>
+        <v>63998.764</v>
       </c>
       <c r="AA27">
-        <v>0.1300360837389171</v>
+        <v>131428.873</v>
       </c>
       <c r="AB27">
-        <v>0.09085368372179797</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.106908720605127</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>0.001192531696095317</v>
+        <v>54758.141</v>
       </c>
       <c r="AE27">
-        <v>0.0418291930091002</v>
+        <v>175232.995</v>
       </c>
       <c r="AF27">
-        <v>0.0003343928777366104</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>0.003181290217178589</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>0.0007254002276094664</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>0.04259757129453218</v>
+        <v>5564.991</v>
       </c>
       <c r="AJ27">
-        <v>0.002790735768818208</v>
+        <v>24295.269</v>
       </c>
       <c r="AK27">
-        <v>0.004244211953691308</v>
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>0.02594871711767842</v>
+        <v>20936.994</v>
       </c>
       <c r="AM27">
-        <v>0.001477001766119426</v>
+        <v>146368.223</v>
       </c>
       <c r="AN27">
-        <v>0.01625284908553689</v>
+        <v>136353.691</v>
       </c>
       <c r="AO27">
-        <v>0.01622953212427859</v>
+        <v>249.977</v>
       </c>
       <c r="AP27">
-        <v>0.0006965492645533102</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>34347.741</v>
       </c>
       <c r="AR27">
-        <v>0.03166625836789218</v>
+        <v>41094.417</v>
       </c>
       <c r="AS27">
-        <v>0.06723337540494549</v>
+        <v>38081.185</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -5106,126 +4620,108 @@
         <v>0</v>
       </c>
       <c r="AV27">
-        <v>0.0009365955357801706</v>
+        <v>125049.479</v>
       </c>
       <c r="AW27">
-        <v>0.007076334495711789</v>
-      </c>
-      <c r="AX27">
-        <v>0.004857702268106446</v>
-      </c>
-      <c r="AY27">
-        <v>0.0008772433720702363</v>
-      </c>
-      <c r="AZ27">
-        <v>0.01967880797771558</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27">
-        <v>0.00762998207740668</v>
-      </c>
-      <c r="BC27">
-        <v>0.0148902390526617</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="1:49">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>0.002846218464087074</v>
+        <v>304006.444</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>277415.462</v>
       </c>
       <c r="E28">
-        <v>0.00836036473670399</v>
+        <v>20906.133</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>13363.665</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1365552.81</v>
       </c>
       <c r="I28">
-        <v>0.006947896812316538</v>
+        <v>104919.523</v>
       </c>
       <c r="J28">
-        <v>0.00248340231165195</v>
+        <v>39327.185</v>
       </c>
       <c r="K28">
-        <v>0.002592438071182269</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0.001326314385916265</v>
+        <v>95893.39999999999</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>22924.958</v>
       </c>
       <c r="N28">
-        <v>0.009317688454051546</v>
+        <v>57906.443</v>
       </c>
       <c r="O28">
-        <v>0.002854053859912555</v>
+        <v>120449.98</v>
       </c>
       <c r="P28">
-        <v>0.001496366028243001</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>24258.108</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>24479.056</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>57622.218</v>
       </c>
       <c r="T28">
-        <v>0.37192454332465</v>
+        <v>1548155.1</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>68151.705</v>
       </c>
       <c r="V28">
-        <v>0.0006305417836384069</v>
+        <v>56115.604</v>
       </c>
       <c r="W28">
-        <v>0.00102133245680399</v>
+        <v>57575.203</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>68136.72</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>106224.537</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>56900.834</v>
       </c>
       <c r="AA28">
-        <v>0.1280749348980602</v>
+        <v>1638194.12</v>
       </c>
       <c r="AB28">
-        <v>0.08352156320914385</v>
+        <v>184663.356</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0.0005095460616254554</v>
+        <v>22454.713</v>
       </c>
       <c r="AE28">
-        <v>0.03840842865398698</v>
+        <v>75783.057</v>
       </c>
       <c r="AF28">
-        <v>0.0001721037265083486</v>
+        <v>420291.733</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -5234,451 +4730,397 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0.03370014686879944</v>
+        <v>2025.251</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>40106.836</v>
       </c>
       <c r="AK28">
-        <v>0.0004047822424727475</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>44213.32</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>46416.389</v>
       </c>
       <c r="AN28">
-        <v>0.02445397862828478</v>
+        <v>40753.88</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.0002346790509691126</v>
+        <v>52257.415</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>57555.9</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>383844.988</v>
       </c>
       <c r="AS28">
-        <v>0.06427155929794888</v>
+        <v>4661.726</v>
       </c>
       <c r="AT28">
-        <v>0.0003137152451862845</v>
+        <v>44347.182</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>55675.834</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>60258.757</v>
       </c>
       <c r="AW28">
-        <v>0.02673988892755305</v>
-      </c>
-      <c r="AX28">
-        <v>0.0004669141016985022</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
-        <v>0.01635976498005717</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>0.0104170380600711</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
+        <v>163723.085</v>
       </c>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29" spans="1:49">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>300764.35</v>
       </c>
       <c r="D29">
-        <v>0.0115841784103967</v>
+        <v>179219.225</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.1401614751384244</v>
+        <v>11083.239</v>
       </c>
       <c r="G29">
-        <v>0.00207279211955519</v>
+        <v>35281.767</v>
       </c>
       <c r="H29">
-        <v>0.00277109915595737</v>
+        <v>99638.37699999999</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>104625.039</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>58945.276</v>
       </c>
       <c r="K29">
-        <v>0.105483422027675</v>
+        <v>43136.225</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0.004985709324234503</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>0.03521434944505066</v>
+        <v>32917.969</v>
       </c>
       <c r="O29">
-        <v>0.002434634417702932</v>
+        <v>133795.529</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.0009479519318146108</v>
+        <v>17174.094</v>
       </c>
       <c r="R29">
-        <v>0.009763421689426318</v>
+        <v>14260.62</v>
       </c>
       <c r="S29">
-        <v>0.002973143960076676</v>
+        <v>129400.835</v>
       </c>
       <c r="T29">
-        <v>0.3194211431828385</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>0.02202845538119135</v>
+        <v>49705.988</v>
       </c>
       <c r="V29">
-        <v>0.0005440250464759767</v>
+        <v>81595.836</v>
       </c>
       <c r="W29">
-        <v>0.0008522792566829734</v>
+        <v>79210.781</v>
       </c>
       <c r="X29">
-        <v>0.001296759470661205</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>0.004052524035611699</v>
+        <v>236718.864</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>49579.228</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1231904.36</v>
       </c>
       <c r="AB29">
-        <v>0.09314329889327541</v>
+        <v>91827.33500000001</v>
       </c>
       <c r="AC29">
-        <v>0.113379603370868</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>0.001380075729761294</v>
+        <v>47643.26</v>
       </c>
       <c r="AE29">
-        <v>0.05278013194387743</v>
+        <v>116011.456</v>
       </c>
       <c r="AF29">
-        <v>0.0006793187974321949</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>3833.824</v>
       </c>
       <c r="AH29">
-        <v>0.0008129991556189493</v>
+        <v>123586.605</v>
       </c>
       <c r="AI29">
-        <v>0.03948070071804663</v>
+        <v>7647.058</v>
       </c>
       <c r="AJ29">
-        <v>0.003275940734190521</v>
+        <v>0</v>
       </c>
       <c r="AK29">
-        <v>0.00142985083229956</v>
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>40484.488</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>95224.61500000001</v>
       </c>
       <c r="AN29">
-        <v>0.02281637909247755</v>
+        <v>177874.53</v>
       </c>
       <c r="AO29">
-        <v>0.03745526434784521</v>
+        <v>5409.266</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>74109.5</v>
       </c>
       <c r="AQ29">
-        <v>0.0007336622110728316</v>
+        <v>99685.504</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>210731.188</v>
       </c>
       <c r="AS29">
-        <v>0.116145328181711</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>0.0007337700306334219</v>
+        <v>0</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>31461.042</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>66412.507</v>
       </c>
       <c r="AW29">
-        <v>0.004607443420719436</v>
-      </c>
-      <c r="AX29">
-        <v>0.001162764043847224</v>
-      </c>
-      <c r="AY29">
-        <v>0.005936721638839581</v>
-      </c>
-      <c r="AZ29">
-        <v>0.009599269977880328</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>0.009176374356768676</v>
-      </c>
-      <c r="BC29">
-        <v>0.01334433266343946</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:55">
+    <row r="30" spans="1:49">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0.003333284363550954</v>
+        <v>414228.067</v>
       </c>
       <c r="D30">
-        <v>0.01411207217582845</v>
+        <v>201906.507</v>
       </c>
       <c r="E30">
-        <v>0.006790268844923695</v>
+        <v>36179.296</v>
       </c>
       <c r="F30">
-        <v>0.1879735302525477</v>
+        <v>27757.194</v>
       </c>
       <c r="G30">
-        <v>0.001132984974765882</v>
+        <v>39548.881</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1911934.9</v>
       </c>
       <c r="I30">
-        <v>0.002154253650675262</v>
+        <v>35684.706</v>
       </c>
       <c r="J30">
-        <v>0.005169061683151089</v>
+        <v>119493.668</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>90795.859</v>
       </c>
       <c r="L30">
-        <v>0.002206722372847584</v>
+        <v>101465.533</v>
       </c>
       <c r="M30">
-        <v>0.004855548669390319</v>
+        <v>19996.848</v>
       </c>
       <c r="N30">
-        <v>0.039262482079176</v>
+        <v>30049.201</v>
       </c>
       <c r="O30">
-        <v>0.002870937289401305</v>
+        <v>159366.044</v>
       </c>
       <c r="P30">
-        <v>0.009259746684810791</v>
+        <v>41803.378</v>
       </c>
       <c r="Q30">
-        <v>0.0007712746936763496</v>
+        <v>24551.817</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>29969.655</v>
       </c>
       <c r="S30">
-        <v>0.002507041468345098</v>
+        <v>154173.88</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>2884482.6</v>
       </c>
       <c r="U30">
-        <v>0.04359627039239998</v>
+        <v>56241.25</v>
       </c>
       <c r="V30">
-        <v>0.0008982903158503394</v>
+        <v>112173.194</v>
       </c>
       <c r="W30">
-        <v>0.001033844965206001</v>
+        <v>97382.106</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>92407.844</v>
       </c>
       <c r="Y30">
-        <v>0.009349627307128214</v>
+        <v>289782.524</v>
       </c>
       <c r="Z30">
-        <v>0.0009939328868527335</v>
+        <v>65320.533</v>
       </c>
       <c r="AA30">
-        <v>0.2133280006820761</v>
+        <v>1539739.56</v>
       </c>
       <c r="AB30">
-        <v>0.1526694205730249</v>
+        <v>105237.067</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>30657.878</v>
       </c>
       <c r="AD30">
-        <v>0.00243094902057477</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>0.04514159903245243</v>
+        <v>93136.745</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>597734.933</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>3915.84</v>
       </c>
       <c r="AH30">
-        <v>0.001602602661567406</v>
+        <v>0</v>
       </c>
       <c r="AI30">
-        <v>0.03809796650116745</v>
+        <v>7575.083</v>
       </c>
       <c r="AJ30">
-        <v>0.006444295678465945</v>
+        <v>61812.267</v>
       </c>
       <c r="AK30">
-        <v>0.001949111613776951</v>
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>0.00368293566036973</v>
+        <v>33111.395</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>104835.235</v>
       </c>
       <c r="AN30">
-        <v>0.02246427878615996</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>6626.441</v>
       </c>
       <c r="AP30">
-        <v>0.000646516903720473</v>
+        <v>73022.417</v>
       </c>
       <c r="AQ30">
-        <v>0.005967372281163297</v>
+        <v>94955.533</v>
       </c>
       <c r="AR30">
-        <v>0.01945058503274765</v>
+        <v>212457.068</v>
       </c>
       <c r="AS30">
-        <v>0.1177242360981337</v>
+        <v>10379.533</v>
       </c>
       <c r="AT30">
-        <v>0.001582253052813529</v>
+        <v>36987.231</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>19519.752</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>76956.796</v>
       </c>
       <c r="AW30">
-        <v>0.009951070186202353</v>
-      </c>
-      <c r="AX30">
-        <v>0.001835617670976121</v>
-      </c>
-      <c r="AY30">
-        <v>0</v>
-      </c>
-      <c r="AZ30">
-        <v>0.01882814245820746</v>
-      </c>
-      <c r="BA30">
-        <v>0</v>
-      </c>
-      <c r="BB30">
-        <v>0.006887476531522206</v>
-      </c>
-      <c r="BC30">
-        <v>0</v>
+        <v>196656.203</v>
       </c>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31" spans="1:49">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>237805.151</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>109476.178</v>
       </c>
       <c r="E31">
-        <v>0.01159867913721339</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.0677185349612572</v>
+        <v>6283.968</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>17905.131</v>
       </c>
       <c r="H31">
-        <v>0.00415593840566015</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0.008396068425467224</v>
+        <v>123420.695</v>
       </c>
       <c r="J31">
-        <v>0.001289369752806457</v>
+        <v>48643.28</v>
       </c>
       <c r="K31">
-        <v>0.004301966845877848</v>
+        <v>31855.623</v>
       </c>
       <c r="L31">
-        <v>0.001267150446575419</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>34914.362</v>
       </c>
       <c r="N31">
-        <v>0.01037439635659734</v>
+        <v>75975.63099999999</v>
       </c>
       <c r="O31">
-        <v>0.005086935042093319</v>
+        <v>94216.444</v>
       </c>
       <c r="P31">
-        <v>0.002259291656413687</v>
+        <v>102906.161</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -5687,43 +5129,43 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>92750.465</v>
       </c>
       <c r="T31">
-        <v>0.396032438539381</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>74139.38</v>
       </c>
       <c r="V31">
-        <v>0.000512092916719095</v>
+        <v>82366.048</v>
       </c>
       <c r="W31">
-        <v>0.0008402547161627844</v>
+        <v>61531.543</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>134106.501</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>15667.871</v>
       </c>
       <c r="AA31">
-        <v>0.1386451003807861</v>
+        <v>1192222.78</v>
       </c>
       <c r="AB31">
-        <v>0.1290982894387658</v>
+        <v>50314.205</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>15050.728</v>
       </c>
       <c r="AD31">
-        <v>0.0004219425595365453</v>
+        <v>14802.214</v>
       </c>
       <c r="AE31">
-        <v>0.04484507492082596</v>
+        <v>18411.416</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -5735,70 +5177,52 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0.04170830346950576</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
         <v>0</v>
       </c>
       <c r="AK31">
-        <v>0.0005463003335421778</v>
+        <v>173982.159</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>22075.183</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>26665.342</v>
       </c>
       <c r="AN31">
-        <v>0.03068525208899585</v>
+        <v>34499.785</v>
       </c>
       <c r="AO31">
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.001106136560848999</v>
+        <v>20432.503</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>71843.429</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>264223.679</v>
       </c>
       <c r="AS31">
-        <v>0.08530477156040306</v>
+        <v>2385.157</v>
       </c>
       <c r="AT31">
-        <v>0.0003897575377928749</v>
+        <v>0</v>
       </c>
       <c r="AU31">
-        <v>0</v>
+        <v>24499.444</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>61071.375</v>
       </c>
       <c r="AW31">
-        <v>0.03156500056663462</v>
-      </c>
-      <c r="AX31">
-        <v>0.003223853754521082</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31">
-        <v>0.01342803575067095</v>
-      </c>
-      <c r="BA31">
-        <v>0.00244526691393555</v>
-      </c>
-      <c r="BB31">
-        <v>0.01140650452165534</v>
-      </c>
-      <c r="BC31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:55">
+    <row r="32" spans="1:49">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5806,166 +5230,148 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>268382.467</v>
       </c>
       <c r="D32">
-        <v>0.00760057613765327</v>
+        <v>275231.797</v>
       </c>
       <c r="E32">
-        <v>0.007925771445995929</v>
+        <v>14923.496</v>
       </c>
       <c r="F32">
-        <v>0.08327375173359487</v>
+        <v>14558.688</v>
       </c>
       <c r="G32">
-        <v>0.001194315170217938</v>
+        <v>34102.979</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1243780.75</v>
       </c>
       <c r="I32">
-        <v>0.002726463446986893</v>
+        <v>167113.921</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>40152.426</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>18945.547</v>
       </c>
       <c r="L32">
-        <v>0.002293929497164825</v>
+        <v>64261.458</v>
       </c>
       <c r="M32">
-        <v>0.004910285694284942</v>
+        <v>34215.582</v>
       </c>
       <c r="N32">
-        <v>0.02535031466999936</v>
+        <v>98854.268</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>118503.853</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>43550.203</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>24439.303</v>
       </c>
       <c r="R32">
-        <v>0.006511006980757379</v>
+        <v>11019.514</v>
       </c>
       <c r="S32">
-        <v>0.005022579446203641</v>
+        <v>58220.564</v>
       </c>
       <c r="T32">
-        <v>0.334040604735603</v>
+        <v>2097037.27</v>
       </c>
       <c r="U32">
-        <v>0.0211238071335138</v>
+        <v>133318.719</v>
       </c>
       <c r="V32">
-        <v>0.0004992308056995917</v>
+        <v>57779.075</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>78227.446</v>
       </c>
       <c r="X32">
-        <v>0.002202261116390857</v>
+        <v>86236.986</v>
       </c>
       <c r="Y32">
-        <v>0.007366908216677053</v>
+        <v>178766.871</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>2647811.92</v>
       </c>
       <c r="AB32">
-        <v>0.1636219637217163</v>
+        <v>199082.485</v>
       </c>
       <c r="AC32">
-        <v>0.4361028579453788</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>81962.46400000001</v>
       </c>
       <c r="AE32">
-        <v>0.03929544408658989</v>
+        <v>117705.018</v>
       </c>
       <c r="AF32">
-        <v>0.0004010857945320682</v>
+        <v>447071.733</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>670.936</v>
       </c>
       <c r="AH32">
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0.02423037846225156</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0.005395381707468232</v>
+        <v>92823.45299999999</v>
       </c>
       <c r="AK32">
-        <v>0.0007724680092511087</v>
+        <v>0</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>61742.296</v>
       </c>
       <c r="AM32">
-        <v>0.0007511480160096096</v>
+        <v>65872.38499999999</v>
       </c>
       <c r="AN32">
-        <v>0.01733532508315581</v>
+        <v>124441.453</v>
       </c>
       <c r="AO32">
-        <v>0.02634822125788582</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>90540.629</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>7374.259</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>553648.5649999999</v>
       </c>
       <c r="AS32">
-        <v>0.06456800850574985</v>
+        <v>2921.012</v>
       </c>
       <c r="AT32">
-        <v>0.0007428362628476864</v>
+        <v>44105.185</v>
       </c>
       <c r="AU32">
-        <v>0.001204565030615722</v>
+        <v>23359.373</v>
       </c>
       <c r="AV32">
-        <v>0.009945847576333641</v>
+        <v>114996.09</v>
       </c>
       <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>0.0003828621931974953</v>
-      </c>
-      <c r="AY32">
-        <v>0.003787038989224887</v>
-      </c>
-      <c r="AZ32">
-        <v>0.04272231233605284</v>
-      </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BB32">
-        <v>0.004912854726678308</v>
-      </c>
-      <c r="BC32">
-        <v>0.04448667629007697</v>
+        <v>211510.978</v>
       </c>
     </row>
-    <row r="33" spans="1:55">
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5973,43 +5379,43 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>49348.26</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.02050067531163972</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.04165658482862746</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>46463.345</v>
       </c>
       <c r="H33">
-        <v>0.0009483180794547526</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0.003257544890532913</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2233.375</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0.001492801354901691</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>47780.568</v>
       </c>
       <c r="N33">
-        <v>0.00333043456825046</v>
+        <v>35686.352</v>
       </c>
       <c r="O33">
-        <v>0.00106069552119438</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -6024,16 +5430,16 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>0.2518032207494862</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>21708.605</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>87648.24000000001</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -6042,22 +5448,22 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>48657.091</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.07838846592167169</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>24002.407</v>
       </c>
       <c r="AD33">
-        <v>0.0001870093877807733</v>
+        <v>26236.431</v>
       </c>
       <c r="AE33">
-        <v>0.02154490291856049</v>
+        <v>41613.317</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -6069,237 +5475,201 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0.009944987393636707</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>53330.067</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>77041.51700000001</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>0.0006777135621138577</v>
+        <v>74584.76300000001</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>344657.597</v>
       </c>
       <c r="AO33">
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.002754989344234137</v>
+        <v>89249.969</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>10947.68</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>13044.925</v>
       </c>
       <c r="AS33">
-        <v>0.01464936637372614</v>
+        <v>25982.01</v>
       </c>
       <c r="AT33">
-        <v>0.0002211825179559306</v>
+        <v>0</v>
       </c>
       <c r="AU33">
-        <v>0</v>
+        <v>30127.979</v>
       </c>
       <c r="AV33">
-        <v>0</v>
+        <v>122536.223</v>
       </c>
       <c r="AW33">
-        <v>0.007404695539724102</v>
-      </c>
-      <c r="AX33">
-        <v>0.002086735248131431</v>
-      </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
-      <c r="AZ33">
-        <v>0.002739386297680042</v>
-      </c>
-      <c r="BA33">
-        <v>0</v>
-      </c>
-      <c r="BB33">
-        <v>0.00979447909466908</v>
-      </c>
-      <c r="BC33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:55">
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>0.002494281622840704</v>
+        <v>116488.495</v>
       </c>
       <c r="D34">
-        <v>0.01140689570714711</v>
+        <v>78750.622</v>
       </c>
       <c r="E34">
-        <v>0.004796209991053005</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.09986201198922874</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.003234206300824497</v>
+        <v>79032.25599999999</v>
       </c>
       <c r="H34">
-        <v>0.004720230574869855</v>
+        <v>77245.7</v>
       </c>
       <c r="I34">
-        <v>0.002053010700260421</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.008132027051777409</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0.2185358088327765</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>0.0024562225681433</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>0.007157870007027349</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>0.02537753942789578</v>
+        <v>21741.127</v>
       </c>
       <c r="O34">
-        <v>0.005803257502296469</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>0.003866283215394328</v>
+        <v>21269.893</v>
       </c>
       <c r="Q34">
-        <v>0.002185579091038543</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>0.01244359354635383</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>0.008367912236170743</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0.4514272208181755</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>0.04030559135554183</v>
+        <v>34444.031</v>
       </c>
       <c r="V34">
-        <v>0.001692801915082416</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>0.003596441683296973</v>
+        <v>90468.344</v>
       </c>
       <c r="X34">
-        <v>0.003326023253715561</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.02125428936753982</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.001935678192503937</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.2177009624427607</v>
+        <v>314504.154</v>
       </c>
       <c r="AB34">
-        <v>0.1810344363230969</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.292069340501379</v>
+        <v>24852.115</v>
       </c>
       <c r="AD34">
-        <v>0.0008426299739110584</v>
+        <v>310987.381</v>
       </c>
       <c r="AE34">
-        <v>0.06063441250045695</v>
+        <v>459165.749</v>
       </c>
       <c r="AF34">
-        <v>0.0003102833225259158</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>0.003736508376852734</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>266075.132</v>
       </c>
       <c r="AI34">
-        <v>0.1036021663503835</v>
+        <v>20260.375</v>
       </c>
       <c r="AJ34">
-        <v>0.006347964613561736</v>
+        <v>58729.857</v>
       </c>
       <c r="AK34">
-        <v>0.004127375281848217</v>
+        <v>0</v>
       </c>
       <c r="AL34">
-        <v>0.01302750512526339</v>
+        <v>0</v>
       </c>
       <c r="AM34">
-        <v>0.002704716944023334</v>
+        <v>337027.295</v>
       </c>
       <c r="AN34">
-        <v>0.03206026501019744</v>
+        <v>38919.029</v>
       </c>
       <c r="AO34">
-        <v>0.05354360938441685</v>
+        <v>29196.864</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>102888.263</v>
       </c>
       <c r="AQ34">
-        <v>0.009382285049172386</v>
+        <v>20426.504</v>
       </c>
       <c r="AR34">
-        <v>0.005740685908785076</v>
+        <v>83118.541</v>
       </c>
       <c r="AS34">
-        <v>0.1198493402327762</v>
+        <v>41695.446</v>
       </c>
       <c r="AT34">
-        <v>0.0007009448680013947</v>
+        <v>0</v>
       </c>
       <c r="AU34">
-        <v>0.0007372528599857489</v>
+        <v>0</v>
       </c>
       <c r="AV34">
-        <v>0</v>
+        <v>122293.613</v>
       </c>
       <c r="AW34">
-        <v>0.004249358349403944</v>
-      </c>
-      <c r="AX34">
-        <v>0</v>
-      </c>
-      <c r="AY34">
-        <v>0.003684184096684581</v>
-      </c>
-      <c r="AZ34">
-        <v>0.0266204364512097</v>
-      </c>
-      <c r="BA34">
-        <v>0.01732309967839621</v>
-      </c>
-      <c r="BB34">
-        <v>0.006704864449663261</v>
-      </c>
-      <c r="BC34">
-        <v>0.0188405962979022</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:55">
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -6307,330 +5677,294 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>405378.405</v>
       </c>
       <c r="D35">
-        <v>0.0124350201464359</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.1149047045727277</v>
+        <v>11828.367</v>
       </c>
       <c r="G35">
-        <v>0.001936859354076063</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0.002636203785037595</v>
+        <v>119038.975</v>
       </c>
       <c r="I35">
-        <v>0.003190865516363909</v>
+        <v>82523.425</v>
       </c>
       <c r="J35">
-        <v>0.01118810637183739</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0.01971256346805986</v>
+        <v>58636.08</v>
       </c>
       <c r="L35">
-        <v>0.002286370508798342</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0.0022817092860231</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>0.04990430375724671</v>
+        <v>20564.988</v>
       </c>
       <c r="O35">
-        <v>0.008132711801387076</v>
+        <v>104027.219</v>
       </c>
       <c r="P35">
-        <v>0.004707972607407398</v>
+        <v>29287.622</v>
       </c>
       <c r="Q35">
-        <v>0.001174886020907228</v>
+        <v>15672.465</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>15504.017</v>
       </c>
       <c r="S35">
-        <v>0.003885335543700768</v>
+        <v>94806.04399999999</v>
       </c>
       <c r="T35">
-        <v>0.4046627446265973</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>36502.579</v>
       </c>
       <c r="V35">
-        <v>0.001819160022761761</v>
+        <v>71422.872</v>
       </c>
       <c r="W35">
-        <v>0.00215265634635686</v>
+        <v>50937.15</v>
       </c>
       <c r="X35">
-        <v>0.001438074876394543</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>0.01272789431999853</v>
+        <v>162544.197</v>
       </c>
       <c r="Z35">
-        <v>0.0009605057181364219</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.3330366372962673</v>
+        <v>1337166.35</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>87126.17</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>10935.154</v>
       </c>
       <c r="AD35">
-        <v>0.001659302312103133</v>
+        <v>137729.287</v>
       </c>
       <c r="AE35">
-        <v>0.067603095299113</v>
+        <v>14081.74</v>
       </c>
       <c r="AF35">
-        <v>0.0005128698055303415</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>2951.322</v>
       </c>
       <c r="AH35">
-        <v>0.001087985469770262</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>0.03446484248919805</v>
+        <v>2017.176</v>
       </c>
       <c r="AJ35">
-        <v>0.004039447509727147</v>
+        <v>42816.183</v>
       </c>
       <c r="AK35">
-        <v>0.002576870844938596</v>
+        <v>0</v>
       </c>
       <c r="AL35">
-        <v>0.007925330245258037</v>
+        <v>0</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>47806.899</v>
       </c>
       <c r="AN35">
-        <v>0.02312087308217806</v>
+        <v>144937.406</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>6575.163</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>55205.828</v>
       </c>
       <c r="AQ35">
-        <v>0.002601936415112098</v>
+        <v>159182.906</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>174988.768</v>
       </c>
       <c r="AS35">
-        <v>0.1337736291150061</v>
+        <v>9453.467000000001</v>
       </c>
       <c r="AT35">
-        <v>0.001529625129508576</v>
+        <v>0</v>
       </c>
       <c r="AU35">
-        <v>0.0009247414739456373</v>
+        <v>61198.075</v>
       </c>
       <c r="AV35">
-        <v>0</v>
+        <v>89285.976</v>
       </c>
       <c r="AW35">
-        <v>0.005226325759870753</v>
-      </c>
-      <c r="AX35">
-        <v>0.003275848085020692</v>
-      </c>
-      <c r="AY35">
-        <v>0</v>
-      </c>
-      <c r="AZ35">
-        <v>0.05464117292280316</v>
-      </c>
-      <c r="BA35">
-        <v>0.000149603002119819</v>
-      </c>
-      <c r="BB35">
-        <v>0.007831613529088783</v>
-      </c>
-      <c r="BC35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:55">
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>0.07390342975204672</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0.01620659877072685</v>
+        <v>65515.473</v>
       </c>
       <c r="E36">
-        <v>0.005223010946218548</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.09738379525273401</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.002804342911815551</v>
+        <v>120432.899</v>
       </c>
       <c r="H36">
-        <v>0.002845920882515707</v>
+        <v>20932.926</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.008972013684932601</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0.1037762021472187</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0.002495279726187715</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0.005670672894937097</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>0.04549162049939085</v>
+        <v>56687.061</v>
       </c>
       <c r="O36">
-        <v>0.005945092042839046</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>0.004651615768898678</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>0.0012561839722286</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>0.004188729223002172</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>0.005891930696615344</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>0.368091217642888</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>0.04514155322152941</v>
+        <v>20439.594</v>
       </c>
       <c r="V36">
-        <v>0.001851805281563867</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>139152.976</v>
       </c>
       <c r="X36">
-        <v>0.004030112173273651</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>0.0164400553762891</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0.0006496257132701402</v>
+        <v>374231.227</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>413917.923</v>
       </c>
       <c r="AB36">
-        <v>0.1902235226326909</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.2168952710391884</v>
+        <v>25294.532</v>
       </c>
       <c r="AD36">
-        <v>0.002342923991082985</v>
+        <v>585313.492</v>
       </c>
       <c r="AE36">
-        <v>0.05474814769522465</v>
+        <v>530532.052</v>
       </c>
       <c r="AF36">
         <v>0</v>
       </c>
       <c r="AG36">
-        <v>0.003110401785727232</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>0.001975792143531133</v>
+        <v>172981.785</v>
       </c>
       <c r="AI36">
-        <v>0.0379379343954374</v>
+        <v>56991.092</v>
       </c>
       <c r="AJ36">
-        <v>0.001683724466205437</v>
+        <v>90093.08</v>
       </c>
       <c r="AK36">
-        <v>0.003015742176763105</v>
+        <v>31096.168</v>
       </c>
       <c r="AL36">
-        <v>0.01760975621221212</v>
+        <v>0</v>
       </c>
       <c r="AM36">
-        <v>0.002524267042643925</v>
+        <v>595409.39</v>
       </c>
       <c r="AN36">
-        <v>0.01627244536551077</v>
+        <v>192381.715</v>
       </c>
       <c r="AO36">
-        <v>0.02379283596604991</v>
+        <v>34927.127</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>125092.048</v>
       </c>
       <c r="AQ36">
-        <v>0.001553483544357761</v>
+        <v>15275.546</v>
       </c>
       <c r="AR36">
-        <v>0.00766059294456907</v>
+        <v>108511.43</v>
       </c>
       <c r="AS36">
-        <v>0.1276492787784397</v>
+        <v>109074.578</v>
       </c>
       <c r="AT36">
-        <v>0.001314988283974791</v>
+        <v>0</v>
       </c>
       <c r="AU36">
-        <v>0.001107195662878789</v>
+        <v>0</v>
       </c>
       <c r="AV36">
-        <v>0.001245682966730306</v>
+        <v>146544.941</v>
       </c>
       <c r="AW36">
-        <v>0.005876015202902292</v>
-      </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
-      <c r="AY36">
-        <v>0.004353909836922815</v>
-      </c>
-      <c r="AZ36">
-        <v>0.08827913094054236</v>
-      </c>
-      <c r="BA36">
-        <v>0.0003761130314208512</v>
-      </c>
-      <c r="BB36">
-        <v>0.008393804607665291</v>
-      </c>
-      <c r="BC36">
-        <v>0.003059903118758723</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
